--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D3ABAE-7EBD-4E25-89C9-8976F9830135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D931C-6DA7-4EC3-805E-C0F7D857E800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2250" windowWidth="21600" windowHeight="11475" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="Inductors_SMD" sheetId="4" r:id="rId4"/>
     <sheet name="Core_Inductors_SMD" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="50">
   <si>
     <t>Part Number</t>
   </si>
@@ -171,6 +180,15 @@
   <si>
     <t>Core Inductor</t>
   </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Resistor 0</t>
+  </si>
 </sst>
 </file>
 
@@ -217,9 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,16 +520,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -519,7 +539,7 @@
     <col min="12" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,10 +573,13 @@
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -587,6 +610,6697 @@
       </c>
       <c r="K2" t="s">
         <v>11</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>CONCATENATE("Resistor ",L3)</f>
+        <v>Resistor 1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A67" si="0">CONCATENATE("Resistor ",L4)</f>
+        <v>Resistor 1,1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 1,2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 1,3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 1,5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 1,6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 1,8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 2,2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 2,4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 2,7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 3,3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 3,6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 3,9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 4,3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 4,7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 5,1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 5,6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 6,2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 6,8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 7,5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 8,2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 9,1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 180</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 220</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 270</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 300</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 330</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 360</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 390</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 430</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>Resistor 470</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" ref="A68:A131" si="1">CONCATENATE("Resistor ",L68)</f>
+        <v>Resistor 510</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 560</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 620</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 680</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 750</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 820</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 910</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1K</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" t="str">
+        <f>CONCATENATE(L3,"K")</f>
+        <v>1K</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1,1K</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" ref="L76:L139" si="2">CONCATENATE(L4,"K")</f>
+        <v>1,1K</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1,2K</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="2"/>
+        <v>1,2K</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1,3K</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="2"/>
+        <v>1,3K</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1,5K</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="2"/>
+        <v>1,5K</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1,6K</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="2"/>
+        <v>1,6K</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 1,8K</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="2"/>
+        <v>1,8K</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 2K</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="2"/>
+        <v>2K</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 2,2K</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="2"/>
+        <v>2,2K</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 2,4K</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="2"/>
+        <v>2,4K</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 2,7K</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="2"/>
+        <v>2,7K</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 3K</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="2"/>
+        <v>3K</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 3,3K</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="2"/>
+        <v>3,3K</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 3,6K</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="2"/>
+        <v>3,6K</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 3,9K</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="2"/>
+        <v>3,9K</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 4,3K</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="2"/>
+        <v>4,3K</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 4,7K</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="2"/>
+        <v>4,7K</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 5,1K</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="2"/>
+        <v>5,1K</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 5,6K</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="2"/>
+        <v>5,6K</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 6,2K</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="2"/>
+        <v>6,2K</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 6,8K</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="2"/>
+        <v>6,8K</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 7,5K</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="2"/>
+        <v>7,5K</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 8,2K</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="2"/>
+        <v>8,2K</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 9,1K</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="2"/>
+        <v>9,1K</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 10K</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="2"/>
+        <v>10K</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 11K</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>11</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="2"/>
+        <v>11K</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 12K</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="2"/>
+        <v>12K</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 13K</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="2"/>
+        <v>13K</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 15K</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" t="s">
+        <v>11</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="2"/>
+        <v>15K</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 16K</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="2"/>
+        <v>16K</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 18K</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="2"/>
+        <v>18K</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 20K</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="2"/>
+        <v>20K</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 22K</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="2"/>
+        <v>22K</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 24K</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="2"/>
+        <v>24K</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 27K</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="2"/>
+        <v>27K</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 30K</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="2"/>
+        <v>30K</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 33K</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" t="s">
+        <v>11</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="2"/>
+        <v>33K</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 36K</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="2"/>
+        <v>36K</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 39K</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="2"/>
+        <v>39K</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 43K</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="2"/>
+        <v>43K</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 47K</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s">
+        <v>11</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="2"/>
+        <v>47K</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 51K</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" t="s">
+        <v>11</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="2"/>
+        <v>51K</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 56K</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="2"/>
+        <v>56K</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 62K</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="2"/>
+        <v>62K</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 68K</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>19</v>
+      </c>
+      <c r="K119" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="2"/>
+        <v>68K</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 75K</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" t="s">
+        <v>11</v>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="2"/>
+        <v>75K</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 82K</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="2"/>
+        <v>82K</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 91K</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="2"/>
+        <v>91K</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 100K</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="2"/>
+        <v>100K</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 110K</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="2"/>
+        <v>110K</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 120K</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" t="s">
+        <v>11</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="2"/>
+        <v>120K</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 130K</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" t="s">
+        <v>11</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="2"/>
+        <v>130K</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 150K</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="2"/>
+        <v>150K</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 160K</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" t="s">
+        <v>11</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="2"/>
+        <v>160K</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 180K</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" t="s">
+        <v>11</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="2"/>
+        <v>180K</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 200K</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" t="s">
+        <v>19</v>
+      </c>
+      <c r="K130" t="s">
+        <v>11</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="2"/>
+        <v>200K</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="1"/>
+        <v>Resistor 220K</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" t="s">
+        <v>11</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" si="2"/>
+        <v>220K</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" ref="A132:A171" si="3">CONCATENATE("Resistor ",L132)</f>
+        <v>Resistor 240K</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="2"/>
+        <v>240K</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 270K</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="2"/>
+        <v>270K</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 300K</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="2"/>
+        <v>300K</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 330K</v>
+      </c>
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" t="s">
+        <v>11</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="2"/>
+        <v>330K</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 360K</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="2"/>
+        <v>360K</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 390K</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="2"/>
+        <v>390K</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 430K</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="2"/>
+        <v>430K</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 470K</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="2"/>
+        <v>470K</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 510K</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" ref="L140:L146" si="4">CONCATENATE(L68,"K")</f>
+        <v>510K</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 560K</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="4"/>
+        <v>560K</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 620K</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" t="s">
+        <v>11</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="4"/>
+        <v>620K</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 680K</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" t="s">
+        <v>11</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="4"/>
+        <v>680K</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 750K</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" t="s">
+        <v>11</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="4"/>
+        <v>750K</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 820K</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" t="s">
+        <v>11</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="4"/>
+        <v>820K</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 910K</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" t="s">
+        <v>11</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="4"/>
+        <v>910K</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1M</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" t="s">
+        <v>11</v>
+      </c>
+      <c r="L147" t="str">
+        <f>CONCATENATE(L3,"M")</f>
+        <v>1M</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1,1M</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" t="s">
+        <v>11</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" ref="L148:L171" si="5">CONCATENATE(L4,"M")</f>
+        <v>1,1M</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1,2M</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" t="s">
+        <v>11</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="5"/>
+        <v>1,2M</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1,3M</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="5"/>
+        <v>1,3M</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1,5M</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" t="s">
+        <v>11</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="5"/>
+        <v>1,5M</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1,6M</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" t="s">
+        <v>11</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="5"/>
+        <v>1,6M</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 1,8M</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" t="s">
+        <v>11</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="5"/>
+        <v>1,8M</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 2M</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" t="s">
+        <v>11</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="5"/>
+        <v>2M</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 2,2M</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" t="s">
+        <v>11</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="5"/>
+        <v>2,2M</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 2,4M</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" t="s">
+        <v>11</v>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="5"/>
+        <v>2,4M</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 2,7M</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" t="s">
+        <v>11</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="5"/>
+        <v>2,7M</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 3M</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" t="s">
+        <v>11</v>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="5"/>
+        <v>3M</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 3,3M</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" t="s">
+        <v>11</v>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="5"/>
+        <v>3,3M</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 3,6M</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" t="s">
+        <v>11</v>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="5"/>
+        <v>3,6M</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 3,9M</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" t="s">
+        <v>11</v>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="5"/>
+        <v>3,9M</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 4,3M</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" t="s">
+        <v>11</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="5"/>
+        <v>4,3M</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 4,7M</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" t="s">
+        <v>11</v>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="5"/>
+        <v>4,7M</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 5,1M</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" t="s">
+        <v>11</v>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="5"/>
+        <v>5,1M</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 5,6M</v>
+      </c>
+      <c r="B165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="5"/>
+        <v>5,6M</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 6,2M</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>19</v>
+      </c>
+      <c r="K166" t="s">
+        <v>11</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="5"/>
+        <v>6,2M</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 6,8M</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" t="s">
+        <v>11</v>
+      </c>
+      <c r="L167" t="str">
+        <f t="shared" si="5"/>
+        <v>6,8M</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 7,5M</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" t="s">
+        <v>11</v>
+      </c>
+      <c r="L168" t="str">
+        <f t="shared" si="5"/>
+        <v>7,5M</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 8,2M</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" t="s">
+        <v>11</v>
+      </c>
+      <c r="L169" t="str">
+        <f t="shared" si="5"/>
+        <v>8,2M</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 9,1M</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="5"/>
+        <v>9,1M</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="3"/>
+        <v>Resistor 10M</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L171" t="str">
+        <f t="shared" si="5"/>
+        <v>10M</v>
       </c>
     </row>
   </sheetData>
@@ -863,9 +7577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA36BAAE-5FE9-424E-8D89-1CB5242DC37E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D931C-6DA7-4EC3-805E-C0F7D857E800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CEE2A3-1D6B-4987-B6C9-0DC438C064B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="51">
   <si>
     <t>Part Number</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Resistor 0</t>
+  </si>
+  <si>
+    <t>Capacitance</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
@@ -7311,11 +7314,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4164A9E-FF46-467E-B380-FA61312CCDD8}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7326,9 +7329,10 @@
     <col min="4" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7368,8 +7372,11 @@
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -7408,6 +7415,9 @@
       </c>
       <c r="M2" t="s">
         <v>33</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CEE2A3-1D6B-4987-B6C9-0DC438C064B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881AE8AC-088A-4F84-998F-E26084120D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="52">
   <si>
     <t>Part Number</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Capacitance</t>
+  </si>
+  <si>
+    <t>Inductance</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7316,9 +7319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4164A9E-FF46-467E-B380-FA61312CCDD8}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7428,11 +7431,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1AF6E3-E00B-4FA8-802B-A00B294F4270}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7445,9 +7448,10 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7478,8 +7482,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7518,11 +7525,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B4EEA0-10C6-4BA2-86BB-625D49EB340F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7533,9 +7540,10 @@
     <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7566,8 +7574,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -7585,9 +7596,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA36BAAE-5FE9-424E-8D89-1CB5242DC37E}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
@@ -7599,9 +7610,10 @@
     <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7632,8 +7644,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881AE8AC-088A-4F84-998F-E26084120D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB079A-5BB9-4C74-A82B-E6B919AFD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="1425" windowWidth="21600" windowHeight="11475" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
@@ -7433,9 +7433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1AF6E3-E00B-4FA8-802B-A00B294F4270}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7517,6 +7517,9 @@
       <c r="J2" t="s">
         <v>37</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7529,7 +7532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7588,6 +7591,9 @@
       <c r="I2" t="s">
         <v>45</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7600,7 +7606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7658,6 +7664,9 @@
       <c r="I2" t="s">
         <v>45</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB079A-5BB9-4C74-A82B-E6B919AFD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048107DB-C72B-4A29-9AF2-BFC027DA32A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="1425" windowWidth="21600" windowHeight="11475" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
@@ -528,9 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,9 +7433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1AF6E3-E00B-4FA8-802B-A00B294F4270}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,7 +7604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA36BAAE-5FE9-424E-8D89-1CB5242DC37E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048107DB-C72B-4A29-9AF2-BFC027DA32A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1DAEB-6D94-49A9-895D-558725A423DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -7604,7 +7604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA36BAAE-5FE9-424E-8D89-1CB5242DC37E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1DAEB-6D94-49A9-895D-558725A423DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557F274F-26CA-487C-9B6C-06A94B174FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2865" windowWidth="21600" windowHeight="11475" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resistors_SMD" sheetId="1" r:id="rId1"/>
-    <sheet name="Capacitors_SMD" sheetId="2" r:id="rId2"/>
-    <sheet name="Tantalum_Capacitors_SMD" sheetId="3" r:id="rId3"/>
-    <sheet name="Inductors_SMD" sheetId="4" r:id="rId4"/>
-    <sheet name="Core_Inductors_SMD" sheetId="5" r:id="rId5"/>
+    <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
+    <sheet name="SMD Capacitors" sheetId="2" r:id="rId2"/>
+    <sheet name="SMD Tantalum Capacitors" sheetId="3" r:id="rId3"/>
+    <sheet name="SMD Inductors" sheetId="4" r:id="rId4"/>
+    <sheet name="SMD Core Inductors" sheetId="5" r:id="rId5"/>
+    <sheet name="Coaxile Connectors" sheetId="6" r:id="rId6"/>
+    <sheet name="Transistors" sheetId="7" r:id="rId7"/>
+    <sheet name="PLS Connectors" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="72">
   <si>
     <t>Part Number</t>
   </si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>Footprint Ref 7</t>
-  </si>
-  <si>
-    <t>RES_SMD.PcbLib</t>
   </si>
   <si>
     <t>RES_SMD_0402</t>
@@ -139,9 +139,6 @@
     <t>Capacitors.SchLib</t>
   </si>
   <si>
-    <t>CAP_SMD.PcbLib</t>
-  </si>
-  <si>
     <t>Capacitor</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>Polarized Capacitor</t>
-  </si>
-  <si>
-    <t>CAP_SMD_TANTALUM.PcbLib</t>
   </si>
   <si>
     <t>TANT_CAP_SMD_A</t>
@@ -194,6 +188,75 @@
   </si>
   <si>
     <t>Inductance</t>
+  </si>
+  <si>
+    <t>BNC Angular-F</t>
+  </si>
+  <si>
+    <t>Con-RF-F</t>
+  </si>
+  <si>
+    <t>Connectors.SchLib</t>
+  </si>
+  <si>
+    <t>Coaxile.PcbLib</t>
+  </si>
+  <si>
+    <t>MOSFET N-Channel</t>
+  </si>
+  <si>
+    <t>MOSFET P-Channel</t>
+  </si>
+  <si>
+    <t>BJT NPN</t>
+  </si>
+  <si>
+    <t>BJT PNP</t>
+  </si>
+  <si>
+    <t>MOSFET-N</t>
+  </si>
+  <si>
+    <t>MOSFET-P</t>
+  </si>
+  <si>
+    <t>BJT-NPN</t>
+  </si>
+  <si>
+    <t>BJT-PNP</t>
+  </si>
+  <si>
+    <t>Transistors.SchLib</t>
+  </si>
+  <si>
+    <t>RES SMD.PcbLib</t>
+  </si>
+  <si>
+    <t>CAP SMD.PcbLib</t>
+  </si>
+  <si>
+    <t>CAP SMD TANTALUM.PcbLib</t>
+  </si>
+  <si>
+    <t>TO Package.PcbLib</t>
+  </si>
+  <si>
+    <t>TO-92-B</t>
+  </si>
+  <si>
+    <t>Connector-10</t>
+  </si>
+  <si>
+    <t>PLS-10</t>
+  </si>
+  <si>
+    <t>Connectors Table.SchLib</t>
+  </si>
+  <si>
+    <t>PLS.PcbLib</t>
+  </si>
+  <si>
+    <t>BNC-ANGULAR</t>
   </si>
 </sst>
 </file>
@@ -529,8 +592,8 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -580,42 +643,42 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -627,37 +690,37 @@
         <v>Resistor 1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -666,34 +729,34 @@
         <v>Resistor 1,1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2">
         <v>1.1000000000000001</v>
@@ -705,34 +768,34 @@
         <v>Resistor 1,2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L5" s="2">
         <v>1.2</v>
@@ -744,34 +807,34 @@
         <v>Resistor 1,3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L6" s="2">
         <v>1.3</v>
@@ -783,34 +846,34 @@
         <v>Resistor 1,5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L7" s="2">
         <v>1.5</v>
@@ -822,34 +885,34 @@
         <v>Resistor 1,6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L8" s="2">
         <v>1.6</v>
@@ -861,34 +924,34 @@
         <v>Resistor 1,8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2">
         <v>1.8</v>
@@ -900,34 +963,34 @@
         <v>Resistor 2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L10" s="2">
         <v>2</v>
@@ -939,34 +1002,34 @@
         <v>Resistor 2,2</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L11" s="2">
         <v>2.2000000000000002</v>
@@ -978,34 +1041,34 @@
         <v>Resistor 2,4</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L12" s="2">
         <v>2.4</v>
@@ -1017,34 +1080,34 @@
         <v>Resistor 2,7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2">
         <v>2.7</v>
@@ -1056,34 +1119,34 @@
         <v>Resistor 3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L14" s="2">
         <v>3</v>
@@ -1095,34 +1158,34 @@
         <v>Resistor 3,3</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L15" s="2">
         <v>3.3</v>
@@ -1134,34 +1197,34 @@
         <v>Resistor 3,6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L16" s="2">
         <v>3.6</v>
@@ -1173,34 +1236,34 @@
         <v>Resistor 3,9</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L17" s="2">
         <v>3.9</v>
@@ -1212,34 +1275,34 @@
         <v>Resistor 4,3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L18" s="2">
         <v>4.3</v>
@@ -1251,34 +1314,34 @@
         <v>Resistor 4,7</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L19" s="2">
         <v>4.7</v>
@@ -1290,34 +1353,34 @@
         <v>Resistor 5,1</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L20" s="2">
         <v>5.0999999999999996</v>
@@ -1329,34 +1392,34 @@
         <v>Resistor 5,6</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L21" s="2">
         <v>5.6</v>
@@ -1368,34 +1431,34 @@
         <v>Resistor 6,2</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L22" s="2">
         <v>6.2</v>
@@ -1407,34 +1470,34 @@
         <v>Resistor 6,8</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L23" s="2">
         <v>6.8</v>
@@ -1446,34 +1509,34 @@
         <v>Resistor 7,5</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L24" s="2">
         <v>7.5</v>
@@ -1485,34 +1548,34 @@
         <v>Resistor 8,2</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L25" s="2">
         <v>8.1999999999999993</v>
@@ -1524,34 +1587,34 @@
         <v>Resistor 9,1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L26" s="2">
         <v>9.1</v>
@@ -1563,34 +1626,34 @@
         <v>Resistor 10</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L27" s="2">
         <v>10</v>
@@ -1602,34 +1665,34 @@
         <v>Resistor 11</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L28" s="2">
         <v>11</v>
@@ -1641,34 +1704,34 @@
         <v>Resistor 12</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L29" s="2">
         <v>12</v>
@@ -1680,34 +1743,34 @@
         <v>Resistor 13</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L30" s="2">
         <v>13</v>
@@ -1719,34 +1782,34 @@
         <v>Resistor 15</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L31" s="2">
         <v>15</v>
@@ -1758,34 +1821,34 @@
         <v>Resistor 16</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L32" s="2">
         <v>16</v>
@@ -1797,34 +1860,34 @@
         <v>Resistor 18</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L33" s="2">
         <v>18</v>
@@ -1836,34 +1899,34 @@
         <v>Resistor 20</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L34" s="2">
         <v>20</v>
@@ -1875,34 +1938,34 @@
         <v>Resistor 22</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L35" s="2">
         <v>22</v>
@@ -1914,34 +1977,34 @@
         <v>Resistor 24</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L36" s="2">
         <v>24</v>
@@ -1953,34 +2016,34 @@
         <v>Resistor 27</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L37" s="2">
         <v>27</v>
@@ -1992,34 +2055,34 @@
         <v>Resistor 30</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L38" s="2">
         <v>30</v>
@@ -2031,34 +2094,34 @@
         <v>Resistor 33</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L39" s="2">
         <v>33</v>
@@ -2070,34 +2133,34 @@
         <v>Resistor 36</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L40" s="2">
         <v>36</v>
@@ -2109,34 +2172,34 @@
         <v>Resistor 39</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L41" s="2">
         <v>39</v>
@@ -2148,34 +2211,34 @@
         <v>Resistor 43</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L42" s="2">
         <v>43</v>
@@ -2187,34 +2250,34 @@
         <v>Resistor 47</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L43" s="2">
         <v>47</v>
@@ -2226,34 +2289,34 @@
         <v>Resistor 51</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L44" s="2">
         <v>51</v>
@@ -2265,34 +2328,34 @@
         <v>Resistor 56</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L45" s="2">
         <v>56</v>
@@ -2304,34 +2367,34 @@
         <v>Resistor 62</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L46" s="2">
         <v>62</v>
@@ -2343,34 +2406,34 @@
         <v>Resistor 68</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L47" s="2">
         <v>68</v>
@@ -2382,34 +2445,34 @@
         <v>Resistor 75</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L48" s="2">
         <v>75</v>
@@ -2421,34 +2484,34 @@
         <v>Resistor 82</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L49" s="2">
         <v>82</v>
@@ -2460,34 +2523,34 @@
         <v>Resistor 91</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L50" s="2">
         <v>91</v>
@@ -2499,34 +2562,34 @@
         <v>Resistor 100</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L51" s="2">
         <v>100</v>
@@ -2538,34 +2601,34 @@
         <v>Resistor 110</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L52" s="2">
         <v>110</v>
@@ -2577,34 +2640,34 @@
         <v>Resistor 120</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L53" s="2">
         <v>120</v>
@@ -2616,34 +2679,34 @@
         <v>Resistor 130</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L54" s="2">
         <v>130</v>
@@ -2655,34 +2718,34 @@
         <v>Resistor 150</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L55" s="2">
         <v>150</v>
@@ -2694,34 +2757,34 @@
         <v>Resistor 160</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L56" s="2">
         <v>160</v>
@@ -2733,34 +2796,34 @@
         <v>Resistor 180</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K57" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L57" s="2">
         <v>180</v>
@@ -2772,34 +2835,34 @@
         <v>Resistor 200</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L58" s="2">
         <v>200</v>
@@ -2811,34 +2874,34 @@
         <v>Resistor 220</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L59" s="2">
         <v>220</v>
@@ -2850,34 +2913,34 @@
         <v>Resistor 240</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K60" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L60" s="2">
         <v>240</v>
@@ -2889,34 +2952,34 @@
         <v>Resistor 270</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K61" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L61" s="2">
         <v>270</v>
@@ -2928,34 +2991,34 @@
         <v>Resistor 300</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L62" s="2">
         <v>300</v>
@@ -2967,34 +3030,34 @@
         <v>Resistor 330</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L63" s="2">
         <v>330</v>
@@ -3006,34 +3069,34 @@
         <v>Resistor 360</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L64" s="2">
         <v>360</v>
@@ -3045,34 +3108,34 @@
         <v>Resistor 390</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L65" s="2">
         <v>390</v>
@@ -3084,34 +3147,34 @@
         <v>Resistor 430</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K66" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L66" s="2">
         <v>430</v>
@@ -3123,34 +3186,34 @@
         <v>Resistor 470</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L67" s="2">
         <v>470</v>
@@ -3162,34 +3225,34 @@
         <v>Resistor 510</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L68" s="2">
         <v>510</v>
@@ -3201,34 +3264,34 @@
         <v>Resistor 560</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L69" s="2">
         <v>560</v>
@@ -3240,34 +3303,34 @@
         <v>Resistor 620</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L70" s="2">
         <v>620</v>
@@ -3279,34 +3342,34 @@
         <v>Resistor 680</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K71" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L71" s="2">
         <v>680</v>
@@ -3318,34 +3381,34 @@
         <v>Resistor 750</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K72" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L72" s="2">
         <v>750</v>
@@ -3357,34 +3420,34 @@
         <v>Resistor 820</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L73" s="2">
         <v>820</v>
@@ -3396,34 +3459,34 @@
         <v>Resistor 910</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L74" s="2">
         <v>910</v>
@@ -3435,34 +3498,34 @@
         <v>Resistor 1K</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L75" t="str">
         <f>CONCATENATE(L3,"K")</f>
@@ -3475,34 +3538,34 @@
         <v>Resistor 1,1K</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" ref="L76:L139" si="2">CONCATENATE(L4,"K")</f>
@@ -3515,34 +3578,34 @@
         <v>Resistor 1,2K</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="2"/>
@@ -3555,34 +3618,34 @@
         <v>Resistor 1,3K</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="2"/>
@@ -3595,34 +3658,34 @@
         <v>Resistor 1,5K</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K79" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="2"/>
@@ -3635,34 +3698,34 @@
         <v>Resistor 1,6K</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K80" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="2"/>
@@ -3675,34 +3738,34 @@
         <v>Resistor 1,8K</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K81" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="2"/>
@@ -3715,34 +3778,34 @@
         <v>Resistor 2K</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="2"/>
@@ -3755,34 +3818,34 @@
         <v>Resistor 2,2K</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K83" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="2"/>
@@ -3795,34 +3858,34 @@
         <v>Resistor 2,4K</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K84" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="2"/>
@@ -3835,34 +3898,34 @@
         <v>Resistor 2,7K</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K85" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L85" t="str">
         <f t="shared" si="2"/>
@@ -3875,34 +3938,34 @@
         <v>Resistor 3K</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K86" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L86" t="str">
         <f t="shared" si="2"/>
@@ -3915,34 +3978,34 @@
         <v>Resistor 3,3K</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L87" t="str">
         <f t="shared" si="2"/>
@@ -3955,34 +4018,34 @@
         <v>Resistor 3,6K</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K88" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L88" t="str">
         <f t="shared" si="2"/>
@@ -3995,34 +4058,34 @@
         <v>Resistor 3,9K</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K89" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L89" t="str">
         <f t="shared" si="2"/>
@@ -4035,34 +4098,34 @@
         <v>Resistor 4,3K</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="2"/>
@@ -4075,34 +4138,34 @@
         <v>Resistor 4,7K</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K91" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="2"/>
@@ -4115,34 +4178,34 @@
         <v>Resistor 5,1K</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K92" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="2"/>
@@ -4155,34 +4218,34 @@
         <v>Resistor 5,6K</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L93" t="str">
         <f t="shared" si="2"/>
@@ -4195,34 +4258,34 @@
         <v>Resistor 6,2K</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="2"/>
@@ -4235,34 +4298,34 @@
         <v>Resistor 6,8K</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L95" t="str">
         <f t="shared" si="2"/>
@@ -4275,34 +4338,34 @@
         <v>Resistor 7,5K</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K96" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L96" t="str">
         <f t="shared" si="2"/>
@@ -4315,34 +4378,34 @@
         <v>Resistor 8,2K</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K97" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L97" t="str">
         <f t="shared" si="2"/>
@@ -4355,34 +4418,34 @@
         <v>Resistor 9,1K</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="2"/>
@@ -4395,34 +4458,34 @@
         <v>Resistor 10K</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K99" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L99" t="str">
         <f t="shared" si="2"/>
@@ -4435,34 +4498,34 @@
         <v>Resistor 11K</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L100" t="str">
         <f t="shared" si="2"/>
@@ -4475,34 +4538,34 @@
         <v>Resistor 12K</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K101" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L101" t="str">
         <f t="shared" si="2"/>
@@ -4515,34 +4578,34 @@
         <v>Resistor 13K</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L102" t="str">
         <f t="shared" si="2"/>
@@ -4555,34 +4618,34 @@
         <v>Resistor 15K</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K103" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L103" t="str">
         <f t="shared" si="2"/>
@@ -4595,34 +4658,34 @@
         <v>Resistor 16K</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K104" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L104" t="str">
         <f t="shared" si="2"/>
@@ -4635,34 +4698,34 @@
         <v>Resistor 18K</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K105" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L105" t="str">
         <f t="shared" si="2"/>
@@ -4675,34 +4738,34 @@
         <v>Resistor 20K</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K106" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L106" t="str">
         <f t="shared" si="2"/>
@@ -4715,34 +4778,34 @@
         <v>Resistor 22K</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K107" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L107" t="str">
         <f t="shared" si="2"/>
@@ -4755,34 +4818,34 @@
         <v>Resistor 24K</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K108" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L108" t="str">
         <f t="shared" si="2"/>
@@ -4795,34 +4858,34 @@
         <v>Resistor 27K</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K109" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L109" t="str">
         <f t="shared" si="2"/>
@@ -4835,34 +4898,34 @@
         <v>Resistor 30K</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K110" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L110" t="str">
         <f t="shared" si="2"/>
@@ -4875,34 +4938,34 @@
         <v>Resistor 33K</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K111" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L111" t="str">
         <f t="shared" si="2"/>
@@ -4915,34 +4978,34 @@
         <v>Resistor 36K</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K112" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L112" t="str">
         <f t="shared" si="2"/>
@@ -4955,34 +5018,34 @@
         <v>Resistor 39K</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K113" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L113" t="str">
         <f t="shared" si="2"/>
@@ -4995,34 +5058,34 @@
         <v>Resistor 43K</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K114" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L114" t="str">
         <f t="shared" si="2"/>
@@ -5035,34 +5098,34 @@
         <v>Resistor 47K</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K115" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L115" t="str">
         <f t="shared" si="2"/>
@@ -5075,34 +5138,34 @@
         <v>Resistor 51K</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K116" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L116" t="str">
         <f t="shared" si="2"/>
@@ -5115,34 +5178,34 @@
         <v>Resistor 56K</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K117" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L117" t="str">
         <f t="shared" si="2"/>
@@ -5155,34 +5218,34 @@
         <v>Resistor 62K</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K118" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L118" t="str">
         <f t="shared" si="2"/>
@@ -5195,34 +5258,34 @@
         <v>Resistor 68K</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K119" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L119" t="str">
         <f t="shared" si="2"/>
@@ -5235,34 +5298,34 @@
         <v>Resistor 75K</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K120" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L120" t="str">
         <f t="shared" si="2"/>
@@ -5275,34 +5338,34 @@
         <v>Resistor 82K</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L121" t="str">
         <f t="shared" si="2"/>
@@ -5315,34 +5378,34 @@
         <v>Resistor 91K</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K122" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L122" t="str">
         <f t="shared" si="2"/>
@@ -5355,34 +5418,34 @@
         <v>Resistor 100K</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K123" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L123" t="str">
         <f t="shared" si="2"/>
@@ -5395,34 +5458,34 @@
         <v>Resistor 110K</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K124" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L124" t="str">
         <f t="shared" si="2"/>
@@ -5435,34 +5498,34 @@
         <v>Resistor 120K</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K125" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L125" t="str">
         <f t="shared" si="2"/>
@@ -5475,34 +5538,34 @@
         <v>Resistor 130K</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K126" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L126" t="str">
         <f t="shared" si="2"/>
@@ -5515,34 +5578,34 @@
         <v>Resistor 150K</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K127" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L127" t="str">
         <f t="shared" si="2"/>
@@ -5555,34 +5618,34 @@
         <v>Resistor 160K</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K128" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L128" t="str">
         <f t="shared" si="2"/>
@@ -5595,34 +5658,34 @@
         <v>Resistor 180K</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K129" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L129" t="str">
         <f t="shared" si="2"/>
@@ -5635,34 +5698,34 @@
         <v>Resistor 200K</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K130" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L130" t="str">
         <f t="shared" si="2"/>
@@ -5675,34 +5738,34 @@
         <v>Resistor 220K</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K131" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L131" t="str">
         <f t="shared" si="2"/>
@@ -5715,34 +5778,34 @@
         <v>Resistor 240K</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K132" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L132" t="str">
         <f t="shared" si="2"/>
@@ -5755,34 +5818,34 @@
         <v>Resistor 270K</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K133" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L133" t="str">
         <f t="shared" si="2"/>
@@ -5795,34 +5858,34 @@
         <v>Resistor 300K</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K134" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L134" t="str">
         <f t="shared" si="2"/>
@@ -5835,34 +5898,34 @@
         <v>Resistor 330K</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K135" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L135" t="str">
         <f t="shared" si="2"/>
@@ -5875,34 +5938,34 @@
         <v>Resistor 360K</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K136" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L136" t="str">
         <f t="shared" si="2"/>
@@ -5915,34 +5978,34 @@
         <v>Resistor 390K</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K137" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L137" t="str">
         <f t="shared" si="2"/>
@@ -5955,34 +6018,34 @@
         <v>Resistor 430K</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L138" t="str">
         <f t="shared" si="2"/>
@@ -5995,34 +6058,34 @@
         <v>Resistor 470K</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K139" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L139" t="str">
         <f t="shared" si="2"/>
@@ -6035,34 +6098,34 @@
         <v>Resistor 510K</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K140" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L140" t="str">
         <f t="shared" ref="L140:L146" si="4">CONCATENATE(L68,"K")</f>
@@ -6075,34 +6138,34 @@
         <v>Resistor 560K</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K141" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L141" t="str">
         <f t="shared" si="4"/>
@@ -6115,34 +6178,34 @@
         <v>Resistor 620K</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K142" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L142" t="str">
         <f t="shared" si="4"/>
@@ -6155,34 +6218,34 @@
         <v>Resistor 680K</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K143" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L143" t="str">
         <f t="shared" si="4"/>
@@ -6195,34 +6258,34 @@
         <v>Resistor 750K</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K144" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L144" t="str">
         <f t="shared" si="4"/>
@@ -6235,34 +6298,34 @@
         <v>Resistor 820K</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K145" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L145" t="str">
         <f t="shared" si="4"/>
@@ -6275,34 +6338,34 @@
         <v>Resistor 910K</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K146" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L146" t="str">
         <f t="shared" si="4"/>
@@ -6315,34 +6378,34 @@
         <v>Resistor 1M</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K147" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L147" t="str">
         <f>CONCATENATE(L3,"M")</f>
@@ -6355,34 +6418,34 @@
         <v>Resistor 1,1M</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K148" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L148" t="str">
         <f t="shared" ref="L148:L171" si="5">CONCATENATE(L4,"M")</f>
@@ -6395,34 +6458,34 @@
         <v>Resistor 1,2M</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K149" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L149" t="str">
         <f t="shared" si="5"/>
@@ -6435,34 +6498,34 @@
         <v>Resistor 1,3M</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K150" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L150" t="str">
         <f t="shared" si="5"/>
@@ -6475,34 +6538,34 @@
         <v>Resistor 1,5M</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K151" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L151" t="str">
         <f t="shared" si="5"/>
@@ -6515,34 +6578,34 @@
         <v>Resistor 1,6M</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K152" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L152" t="str">
         <f t="shared" si="5"/>
@@ -6555,34 +6618,34 @@
         <v>Resistor 1,8M</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K153" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L153" t="str">
         <f t="shared" si="5"/>
@@ -6595,34 +6658,34 @@
         <v>Resistor 2M</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K154" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L154" t="str">
         <f t="shared" si="5"/>
@@ -6635,34 +6698,34 @@
         <v>Resistor 2,2M</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K155" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L155" t="str">
         <f t="shared" si="5"/>
@@ -6675,34 +6738,34 @@
         <v>Resistor 2,4M</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K156" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L156" t="str">
         <f t="shared" si="5"/>
@@ -6715,34 +6778,34 @@
         <v>Resistor 2,7M</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K157" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L157" t="str">
         <f t="shared" si="5"/>
@@ -6755,34 +6818,34 @@
         <v>Resistor 3M</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K158" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L158" t="str">
         <f t="shared" si="5"/>
@@ -6795,34 +6858,34 @@
         <v>Resistor 3,3M</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K159" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L159" t="str">
         <f t="shared" si="5"/>
@@ -6835,34 +6898,34 @@
         <v>Resistor 3,6M</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K160" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L160" t="str">
         <f t="shared" si="5"/>
@@ -6875,34 +6938,34 @@
         <v>Resistor 3,9M</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K161" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L161" t="str">
         <f t="shared" si="5"/>
@@ -6915,34 +6978,34 @@
         <v>Resistor 4,3M</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K162" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L162" t="str">
         <f t="shared" si="5"/>
@@ -6955,34 +7018,34 @@
         <v>Resistor 4,7M</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K163" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L163" t="str">
         <f t="shared" si="5"/>
@@ -6995,34 +7058,34 @@
         <v>Resistor 5,1M</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K164" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L164" t="str">
         <f t="shared" si="5"/>
@@ -7035,34 +7098,34 @@
         <v>Resistor 5,6M</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K165" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L165" t="str">
         <f t="shared" si="5"/>
@@ -7075,34 +7138,34 @@
         <v>Resistor 6,2M</v>
       </c>
       <c r="B166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K166" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L166" t="str">
         <f t="shared" si="5"/>
@@ -7115,34 +7178,34 @@
         <v>Resistor 6,8M</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K167" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L167" t="str">
         <f t="shared" si="5"/>
@@ -7155,34 +7218,34 @@
         <v>Resistor 7,5M</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K168" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L168" t="str">
         <f t="shared" si="5"/>
@@ -7195,34 +7258,34 @@
         <v>Resistor 8,2M</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K169" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L169" t="str">
         <f t="shared" si="5"/>
@@ -7235,34 +7298,34 @@
         <v>Resistor 9,1M</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K170" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L170" t="str">
         <f t="shared" si="5"/>
@@ -7275,34 +7338,34 @@
         <v>Resistor 10M</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K171" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L171" t="str">
         <f t="shared" si="5"/>
@@ -7321,7 +7384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7340,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7364,10 +7427,10 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -7376,48 +7439,48 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -7435,7 +7498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7456,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7483,39 +7546,39 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7551,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7578,18 +7641,18 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7604,9 +7667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA36BAAE-5FE9-424E-8D89-1CB5242DC37E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7651,21 +7714,274 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E9DB33-FF3E-4AEB-A5D7-692CBBFB1B31}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557F274F-26CA-487C-9B6C-06A94B174FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F326638-601D-401B-9AAE-35F5D126FEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2865" windowWidth="21600" windowHeight="11475" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="87">
   <si>
     <t>Part Number</t>
   </si>
@@ -257,18 +257,71 @@
   </si>
   <si>
     <t>BNC-ANGULAR</t>
+  </si>
+  <si>
+    <t>КП504А</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>ОАО "ИНТЕГРАЛ"</t>
+  </si>
+  <si>
+    <t>D-S Voltage</t>
+  </si>
+  <si>
+    <t>Drain Current</t>
+  </si>
+  <si>
+    <t>240 В</t>
+  </si>
+  <si>
+    <t>250 мА</t>
+  </si>
+  <si>
+    <t>D-S On-Resistance</t>
+  </si>
+  <si>
+    <t>8 Ом</t>
+  </si>
+  <si>
+    <t>Total Power Dissipation</t>
+  </si>
+  <si>
+    <t>1 Вт</t>
+  </si>
+  <si>
+    <t>Gate Threshold Voltage</t>
+  </si>
+  <si>
+    <t>1,2 В</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>MOSFET-N GDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -300,15 +359,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7373,7 +7444,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7487,7 +7558,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7812,103 +7883,164 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F326638-601D-401B-9AAE-35F5D126FEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249CC949-F9AE-46BD-A98A-BD2AEAE36186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,13 @@
     <sheet name="SMD Core Inductors" sheetId="5" r:id="rId5"/>
     <sheet name="Coaxile Connectors" sheetId="6" r:id="rId6"/>
     <sheet name="Transistors" sheetId="7" r:id="rId7"/>
-    <sheet name="PLS Connectors" sheetId="8" r:id="rId8"/>
+    <sheet name="PLS Table Connectors" sheetId="8" r:id="rId8"/>
+    <sheet name="PBS Table Connectors" sheetId="11" r:id="rId9"/>
+    <sheet name="PLD Table Connectors" sheetId="12" r:id="rId10"/>
+    <sheet name="PBD Table Connectors" sheetId="14" r:id="rId11"/>
+    <sheet name="PLS Conncetors" sheetId="9" r:id="rId12"/>
+    <sheet name="PBS Connectors" sheetId="10" r:id="rId13"/>
+    <sheet name="PLD Connectors" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="191">
   <si>
     <t>Part Number</t>
   </si>
@@ -244,9 +250,6 @@
     <t>TO-92-B</t>
   </si>
   <si>
-    <t>Connector-10</t>
-  </si>
-  <si>
     <t>PLS-10</t>
   </si>
   <si>
@@ -302,6 +305,321 @@
   </si>
   <si>
     <t>MOSFET-N GDS</t>
+  </si>
+  <si>
+    <t>PLS-1</t>
+  </si>
+  <si>
+    <t>PLS-2</t>
+  </si>
+  <si>
+    <t>PLS-3</t>
+  </si>
+  <si>
+    <t>PLS-4</t>
+  </si>
+  <si>
+    <t>PLS-5</t>
+  </si>
+  <si>
+    <t>PLS-6</t>
+  </si>
+  <si>
+    <t>PLS-7</t>
+  </si>
+  <si>
+    <t>PLS-8</t>
+  </si>
+  <si>
+    <t>PLS-9</t>
+  </si>
+  <si>
+    <t>PLS-12</t>
+  </si>
+  <si>
+    <t>PLS-14</t>
+  </si>
+  <si>
+    <t>Connector-2-M</t>
+  </si>
+  <si>
+    <t>Connector-3-M</t>
+  </si>
+  <si>
+    <t>Connector-4-M</t>
+  </si>
+  <si>
+    <t>Connector-6-M</t>
+  </si>
+  <si>
+    <t>Connector-8-M</t>
+  </si>
+  <si>
+    <t>Connector-10-M</t>
+  </si>
+  <si>
+    <t>Connector-12-M</t>
+  </si>
+  <si>
+    <t>Connector-14-M</t>
+  </si>
+  <si>
+    <t>Con-1-M</t>
+  </si>
+  <si>
+    <t>Con-2-M</t>
+  </si>
+  <si>
+    <t>Con-3-M</t>
+  </si>
+  <si>
+    <t>Con-3-M_S</t>
+  </si>
+  <si>
+    <t>Con-4-M</t>
+  </si>
+  <si>
+    <t>Con-4-M_S</t>
+  </si>
+  <si>
+    <t>Con-5-M</t>
+  </si>
+  <si>
+    <t>Con-6-M</t>
+  </si>
+  <si>
+    <t>Con-7-M</t>
+  </si>
+  <si>
+    <t>Con-8-M</t>
+  </si>
+  <si>
+    <t>Con-9-M</t>
+  </si>
+  <si>
+    <t>Con-10-M</t>
+  </si>
+  <si>
+    <t>Con-10-M_S</t>
+  </si>
+  <si>
+    <t>PLS-4-S</t>
+  </si>
+  <si>
+    <t>PLS-3-S</t>
+  </si>
+  <si>
+    <t>PLS-10-S</t>
+  </si>
+  <si>
+    <t>PBS.PcbLib</t>
+  </si>
+  <si>
+    <t>PBS-2</t>
+  </si>
+  <si>
+    <t>PBS-3</t>
+  </si>
+  <si>
+    <t>PBS-4</t>
+  </si>
+  <si>
+    <t>PBS-6</t>
+  </si>
+  <si>
+    <t>PBS-8</t>
+  </si>
+  <si>
+    <t>PBS-10</t>
+  </si>
+  <si>
+    <t>PBS-12</t>
+  </si>
+  <si>
+    <t>PBS-14</t>
+  </si>
+  <si>
+    <t>Connector-2-F</t>
+  </si>
+  <si>
+    <t>Connector-3-F</t>
+  </si>
+  <si>
+    <t>Connector-4-F</t>
+  </si>
+  <si>
+    <t>Connector-6-F</t>
+  </si>
+  <si>
+    <t>Connector-8-F</t>
+  </si>
+  <si>
+    <t>Connector-10-F</t>
+  </si>
+  <si>
+    <t>Connector-12-F</t>
+  </si>
+  <si>
+    <t>Connector-14-F</t>
+  </si>
+  <si>
+    <t>PBS-1</t>
+  </si>
+  <si>
+    <t>PBS-5</t>
+  </si>
+  <si>
+    <t>PBS-7</t>
+  </si>
+  <si>
+    <t>PBS-9</t>
+  </si>
+  <si>
+    <t>PBS-3-S</t>
+  </si>
+  <si>
+    <t>PBS-4-S</t>
+  </si>
+  <si>
+    <t>PBS-10-S</t>
+  </si>
+  <si>
+    <t>Con-1-F</t>
+  </si>
+  <si>
+    <t>Con-2-F</t>
+  </si>
+  <si>
+    <t>Con-3-F</t>
+  </si>
+  <si>
+    <t>Con-3-F_S</t>
+  </si>
+  <si>
+    <t>Con-4-F</t>
+  </si>
+  <si>
+    <t>Con-4-F_S</t>
+  </si>
+  <si>
+    <t>Con-5-F</t>
+  </si>
+  <si>
+    <t>Con-6-F</t>
+  </si>
+  <si>
+    <t>Con-7-F</t>
+  </si>
+  <si>
+    <t>Con-8-F</t>
+  </si>
+  <si>
+    <t>Con-9-F</t>
+  </si>
+  <si>
+    <t>Con-10-F</t>
+  </si>
+  <si>
+    <t>Con-10-F_S</t>
+  </si>
+  <si>
+    <t>PLD-4</t>
+  </si>
+  <si>
+    <t>PLD-6</t>
+  </si>
+  <si>
+    <t>PLD-8</t>
+  </si>
+  <si>
+    <t>PLD-10</t>
+  </si>
+  <si>
+    <t>PLD-12</t>
+  </si>
+  <si>
+    <t>PLD-14</t>
+  </si>
+  <si>
+    <t>PLD-16</t>
+  </si>
+  <si>
+    <t>PLD-18</t>
+  </si>
+  <si>
+    <t>PLD-20</t>
+  </si>
+  <si>
+    <t>PLD.PcbLib</t>
+  </si>
+  <si>
+    <t>Connector-18-M</t>
+  </si>
+  <si>
+    <t>Connector-20-M</t>
+  </si>
+  <si>
+    <t>Connector-16-M</t>
+  </si>
+  <si>
+    <t>PLD-4-S</t>
+  </si>
+  <si>
+    <t>PLD-10-S</t>
+  </si>
+  <si>
+    <t>Con-12-M</t>
+  </si>
+  <si>
+    <t>Con-14-M</t>
+  </si>
+  <si>
+    <t>Con-16-M</t>
+  </si>
+  <si>
+    <t>Con-18-M</t>
+  </si>
+  <si>
+    <t>Con-20-M</t>
+  </si>
+  <si>
+    <t>PBD-4</t>
+  </si>
+  <si>
+    <t>PBD-6</t>
+  </si>
+  <si>
+    <t>PBD-8</t>
+  </si>
+  <si>
+    <t>PBD-10</t>
+  </si>
+  <si>
+    <t>PBD-12</t>
+  </si>
+  <si>
+    <t>PBD-14</t>
+  </si>
+  <si>
+    <t>PBD.PcbLib</t>
+  </si>
+  <si>
+    <t>PBD-16</t>
+  </si>
+  <si>
+    <t>PBD-18</t>
+  </si>
+  <si>
+    <t>PBD-20</t>
+  </si>
+  <si>
+    <t>Connector-20-F</t>
+  </si>
+  <si>
+    <t>Connector-18-F</t>
+  </si>
+  <si>
+    <t>Connector-16-F</t>
   </si>
 </sst>
 </file>
@@ -7449,6 +7767,1332 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D1B9A-9A1D-4CEA-B90C-AFD0D9FD3631}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D34250-2336-4460-9501-0D1F046D8D2A}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2DF4A-4DF6-48C6-A5C1-4963A031A5FD}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252E21A-F9F9-4B96-B692-B82D09398689}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959D3CF7-9ACA-42EF-AC2D-CCD2A8F46DC3}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4164A9E-FF46-467E-B380-FA61312CCDD8}">
   <dimension ref="A1:N2"/>
@@ -7867,7 +9511,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>51</v>
@@ -7885,7 +9529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -7910,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -7940,22 +9584,22 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -8007,13 +9651,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
@@ -8025,22 +9669,22 @@
         <v>65</v>
       </c>
       <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8050,73 +9694,411 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEEEDFA-D892-45B4-A06A-71FD3CB1D261}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249CC949-F9AE-46BD-A98A-BD2AEAE36186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C74A7-9744-47F7-920A-08771594A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="PLS Conncetors" sheetId="9" r:id="rId12"/>
     <sheet name="PBS Connectors" sheetId="10" r:id="rId13"/>
     <sheet name="PLD Connectors" sheetId="13" r:id="rId14"/>
+    <sheet name="PBD Connectors" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="235">
   <si>
     <t>Part Number</t>
   </si>
@@ -620,6 +621,138 @@
   </si>
   <si>
     <t>Connector-16-F</t>
+  </si>
+  <si>
+    <t>Con-12-F</t>
+  </si>
+  <si>
+    <t>Con-14-F</t>
+  </si>
+  <si>
+    <t>Con-16-F</t>
+  </si>
+  <si>
+    <t>Con-18-F</t>
+  </si>
+  <si>
+    <t>Con-20-F</t>
+  </si>
+  <si>
+    <t>PBD-4-S</t>
+  </si>
+  <si>
+    <t>PBD-10-S</t>
+  </si>
+  <si>
+    <t>PBD-12-S</t>
+  </si>
+  <si>
+    <t>Con-12-F_S</t>
+  </si>
+  <si>
+    <t>PBD-14-S</t>
+  </si>
+  <si>
+    <t>Con-14-F_S</t>
+  </si>
+  <si>
+    <t>PBD-16-S</t>
+  </si>
+  <si>
+    <t>Con-16-F_S</t>
+  </si>
+  <si>
+    <t>PBD-18-S</t>
+  </si>
+  <si>
+    <t>Con-18-F_S</t>
+  </si>
+  <si>
+    <t>PBD-20-S</t>
+  </si>
+  <si>
+    <t>Con-20-F_S</t>
+  </si>
+  <si>
+    <t>PLD-12-S</t>
+  </si>
+  <si>
+    <t>Con-12-M_S</t>
+  </si>
+  <si>
+    <t>PLD-14-S</t>
+  </si>
+  <si>
+    <t>Con-14-M_S</t>
+  </si>
+  <si>
+    <t>PLD-16-S</t>
+  </si>
+  <si>
+    <t>Con-16-M_S</t>
+  </si>
+  <si>
+    <t>PLD-18-S</t>
+  </si>
+  <si>
+    <t>Con-18-M_S</t>
+  </si>
+  <si>
+    <t>PLD-20-S</t>
+  </si>
+  <si>
+    <t>Con-20-M_S</t>
+  </si>
+  <si>
+    <t>PLS-16</t>
+  </si>
+  <si>
+    <t>PLS-18</t>
+  </si>
+  <si>
+    <t>PLS-20</t>
+  </si>
+  <si>
+    <t>PLS-12-S</t>
+  </si>
+  <si>
+    <t>PLS-14-S</t>
+  </si>
+  <si>
+    <t>PLS-16-S</t>
+  </si>
+  <si>
+    <t>PLS-18-S</t>
+  </si>
+  <si>
+    <t>PLS-21</t>
+  </si>
+  <si>
+    <t>PLS-20-S</t>
+  </si>
+  <si>
+    <t>PBS-16</t>
+  </si>
+  <si>
+    <t>PBS-18</t>
+  </si>
+  <si>
+    <t>PBS-20</t>
+  </si>
+  <si>
+    <t>PBS-12-S</t>
+  </si>
+  <si>
+    <t>PBS-14-S</t>
+  </si>
+  <si>
+    <t>PBS-16-S</t>
+  </si>
+  <si>
+    <t>PBS-18-S</t>
+  </si>
+  <si>
+    <t>PBS-20-S</t>
   </si>
 </sst>
 </file>
@@ -7997,7 +8130,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,11 +8351,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2DF4A-4DF6-48C6-A5C1-4963A031A5FD}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F14"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8517,6 +8650,206 @@
         <v>69</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8525,11 +8858,516 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252E21A-F9F9-4B96-B692-B82D09398689}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959D3CF7-9ACA-42EF-AC2D-CCD2A8F46DC3}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,262 +9402,322 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -8828,20 +9726,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959D3CF7-9ACA-42EF-AC2D-CCD2A8F46DC3}">
-  <dimension ref="A1:F12"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB8CB2-C1F3-41C6-B253-7F191E57DC3A}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -8869,222 +9766,322 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9694,11 +10691,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9893,6 +10890,66 @@
         <v>69</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9901,11 +10958,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEEEDFA-D892-45B4-A06A-71FD3CB1D261}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C9"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10097,6 +11154,66 @@
         <v>121</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C74A7-9744-47F7-920A-08771594A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E3484-6870-43F2-8CF3-EB4148C0F336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="PBS Connectors" sheetId="10" r:id="rId13"/>
     <sheet name="PLD Connectors" sheetId="13" r:id="rId14"/>
     <sheet name="PBD Connectors" sheetId="15" r:id="rId15"/>
+    <sheet name="DIP Switches" sheetId="16" r:id="rId16"/>
+    <sheet name="Diodes" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="244">
   <si>
     <t>Part Number</t>
   </si>
@@ -753,6 +755,33 @@
   </si>
   <si>
     <t>PBS-20-S</t>
+  </si>
+  <si>
+    <t>Jumper-3</t>
+  </si>
+  <si>
+    <t>SW DIP.PcbLib</t>
+  </si>
+  <si>
+    <t>Switches.SchLib</t>
+  </si>
+  <si>
+    <t>TRR-1A-05-S-00-R</t>
+  </si>
+  <si>
+    <t>Reed Switch</t>
+  </si>
+  <si>
+    <t>SW SMD.PcbLib</t>
+  </si>
+  <si>
+    <t>SMD-12-67-89-13-14</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Diodes.SchLib</t>
   </si>
 </sst>
 </file>
@@ -9730,9 +9759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB8CB2-C1F3-41C6-B253-7F191E57DC3A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10086,6 +10115,177 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10528,7 +10728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E3484-6870-43F2-8CF3-EB4148C0F336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EF2263-8AAB-4BE5-A58E-648368F48909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="248">
   <si>
     <t>Part Number</t>
   </si>
@@ -782,6 +782,18 @@
   </si>
   <si>
     <t>Diodes.SchLib</t>
+  </si>
+  <si>
+    <t>BAS416</t>
+  </si>
+  <si>
+    <t>SOD Package.PcbLib</t>
+  </si>
+  <si>
+    <t>SOD323</t>
+  </si>
+  <si>
+    <t>Diode-CA</t>
   </si>
 </sst>
 </file>
@@ -10205,17 +10217,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10279,10 +10294,30 @@
         <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J2" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EF2263-8AAB-4BE5-A58E-648368F48909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3649D0-64E5-4FFC-8790-2285DD07BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="251">
   <si>
     <t>Part Number</t>
   </si>
@@ -794,6 +794,15 @@
   </si>
   <si>
     <t>Diode-CA</t>
+  </si>
+  <si>
+    <t>SIP-1357</t>
+  </si>
+  <si>
+    <t>Reed Switch-1357</t>
+  </si>
+  <si>
+    <t>EDR101A0500 (Z)</t>
   </si>
 </sst>
 </file>
@@ -10133,11 +10142,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10209,6 +10218,26 @@
         <v>240</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10219,7 +10248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3649D0-64E5-4FFC-8790-2285DD07BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48034F7C-615E-4575-8436-6225DA47FA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2715" windowWidth="21600" windowHeight="11475" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2340" windowWidth="24885" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
@@ -10144,7 +10144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -10790,7 +10790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -10807,7 +10807,7 @@
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48034F7C-615E-4575-8436-6225DA47FA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6A7FA-87FB-476E-8D82-FA1E6A63A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2340" windowWidth="24885" windowHeight="11385" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="PBD Connectors" sheetId="15" r:id="rId15"/>
     <sheet name="DIP Switches" sheetId="16" r:id="rId16"/>
     <sheet name="Diodes" sheetId="17" r:id="rId17"/>
+    <sheet name="РЭС15" sheetId="18" r:id="rId18"/>
+    <sheet name="SQP Res" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="263">
   <si>
     <t>Part Number</t>
   </si>
@@ -803,13 +805,71 @@
   </si>
   <si>
     <t>EDR101A0500 (Z)</t>
+  </si>
+  <si>
+    <t>РЭС.PcbLib</t>
+  </si>
+  <si>
+    <t>РЭС15</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>РС4.591.006</t>
+  </si>
+  <si>
+    <t>SI2300DS-T1-GE3</t>
+  </si>
+  <si>
+    <t>MOSFET-N GSD</t>
+  </si>
+  <si>
+    <t>SOT Package.PcbLib</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQP 10 Вт 1 Ом </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+  </si>
+  <si>
+    <t>SQP 10 Вт 1 Ом ±5%</t>
+  </si>
+  <si>
+    <t>SQP 10W</t>
+  </si>
+  <si>
+    <t>SQP.PcbLib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +890,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1165,7 +1232,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
+      <selection pane="bottomLeft" activeCell="J104" activeCellId="1" sqref="B104 J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10146,7 +10213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10347,6 +10414,139 @@
       </c>
       <c r="K3" t="s">
         <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047152A-FCBE-403C-A91A-439AB27AC722}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A472A1-95E4-4749-8DC1-78716A94C072}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -10788,26 +10988,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10815,65 +11016,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
       <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10881,10 +11082,10 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10892,10 +11093,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10903,10 +11104,10 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10915,41 +11116,62 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>73</v>
+      <c r="J7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6A7FA-87FB-476E-8D82-FA1E6A63A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA613D-1B6F-4BB5-80DA-149396BB4405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -10488,7 +10488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A472A1-95E4-4749-8DC1-78716A94C072}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -10990,7 +10990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA613D-1B6F-4BB5-80DA-149396BB4405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9836D8-1405-44D7-8C95-C12592DBD6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Diodes" sheetId="17" r:id="rId17"/>
     <sheet name="РЭС15" sheetId="18" r:id="rId18"/>
     <sheet name="SQP Res" sheetId="19" r:id="rId19"/>
+    <sheet name="OpAmps" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="267">
   <si>
     <t>Part Number</t>
   </si>
@@ -863,6 +864,18 @@
   </si>
   <si>
     <t>SQP.PcbLib</t>
+  </si>
+  <si>
+    <t>TL072CDR</t>
+  </si>
+  <si>
+    <t>OpAmps.SchLib</t>
+  </si>
+  <si>
+    <t>SO Package.PcbLib</t>
+  </si>
+  <si>
+    <t>SO-8</t>
   </si>
 </sst>
 </file>
@@ -10489,7 +10502,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10664,6 +10677,69 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10990,7 +11066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9836D8-1405-44D7-8C95-C12592DBD6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7596427-76E7-4023-8695-165C9427B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="РЭС15" sheetId="18" r:id="rId18"/>
     <sheet name="SQP Res" sheetId="19" r:id="rId19"/>
     <sheet name="OpAmps" sheetId="20" r:id="rId20"/>
+    <sheet name="Analog ICs" sheetId="21" r:id="rId21"/>
+    <sheet name="RLB Inductors" sheetId="22" r:id="rId22"/>
+    <sheet name="El Cap" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="287">
   <si>
     <t>Part Number</t>
   </si>
@@ -876,6 +879,66 @@
   </si>
   <si>
     <t>SO-8</t>
+  </si>
+  <si>
+    <t>NE555DR</t>
+  </si>
+  <si>
+    <t>Analog Ics.SchLib</t>
+  </si>
+  <si>
+    <t>1N5404</t>
+  </si>
+  <si>
+    <t>DO Package.PcbLib</t>
+  </si>
+  <si>
+    <t>DO-201AD</t>
+  </si>
+  <si>
+    <t>RLB.PcbLib</t>
+  </si>
+  <si>
+    <t>RLB0914</t>
+  </si>
+  <si>
+    <t>1000мк</t>
+  </si>
+  <si>
+    <t>RLB0914-102KL</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>ECAP (К50-35)</t>
+  </si>
+  <si>
+    <t>JRB.PcbLib</t>
+  </si>
+  <si>
+    <t>22мк</t>
+  </si>
+  <si>
+    <t>350В</t>
+  </si>
+  <si>
+    <t>JRB12.5/13</t>
+  </si>
+  <si>
+    <t>STP11NK50Z</t>
+  </si>
+  <si>
+    <t>TO-220</t>
+  </si>
+  <si>
+    <t>500В</t>
+  </si>
+  <si>
+    <t>10А</t>
+  </si>
+  <si>
+    <t>0,48Ом</t>
   </si>
 </sst>
 </file>
@@ -10326,20 +10389,23 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10347,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -10427,6 +10493,26 @@
       </c>
       <c r="K3" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10685,8 +10771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10737,6 +10823,216 @@
       </c>
       <c r="F2" t="s">
         <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF9B95B-134C-4FD8-8A48-B6718728E3BB}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3FA756-703C-41CB-92CC-596399589CC9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADBAED-E8E5-4970-8DAA-34238D39F5D0}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -11064,11 +11360,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11243,6 +11539,35 @@
       </c>
       <c r="Q7" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M8" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7596427-76E7-4023-8695-165C9427B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6198DBCA-6F39-4256-8667-9B6465B8ED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,9 @@
     <sheet name="Analog ICs" sheetId="21" r:id="rId21"/>
     <sheet name="RLB Inductors" sheetId="22" r:id="rId22"/>
     <sheet name="El Cap" sheetId="23" r:id="rId23"/>
+    <sheet name="Potentiometers" sheetId="24" r:id="rId24"/>
+    <sheet name="DACs" sheetId="25" r:id="rId25"/>
+    <sheet name="Voltage Reference" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="308">
   <si>
     <t>Part Number</t>
   </si>
@@ -939,6 +942,69 @@
   </si>
   <si>
     <t>0,48Ом</t>
+  </si>
+  <si>
+    <t>RLB1314</t>
+  </si>
+  <si>
+    <t>RLB1314-221KL</t>
+  </si>
+  <si>
+    <t>220мк</t>
+  </si>
+  <si>
+    <t>BC817</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>N-ch</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>BJT-NPN-BEC</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>3266W-1-101LF</t>
+  </si>
+  <si>
+    <t>RES HOLE.PcbLib</t>
+  </si>
+  <si>
+    <t>3266W</t>
+  </si>
+  <si>
+    <t>OpAmp 8Pin</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>LM6172IM/NOPB</t>
+  </si>
+  <si>
+    <t>AD5542BRZ</t>
+  </si>
+  <si>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>DACs.SchLib</t>
+  </si>
+  <si>
+    <t>LM285Z-2.5/NOPB</t>
+  </si>
+  <si>
+    <t>Zener-AC</t>
   </si>
 </sst>
 </file>
@@ -10769,20 +10835,20 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10810,7 +10876,7 @@
         <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
         <v>266</v>
@@ -10823,6 +10889,26 @@
       </c>
       <c r="F2" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10895,10 +10981,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3FA756-703C-41CB-92CC-596399589CC9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10958,6 +11044,29 @@
         <v>274</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10969,7 +11078,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11003,7 +11112,7 @@
         <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>276</v>
@@ -11033,6 +11142,215 @@
       </c>
       <c r="H2" t="s">
         <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB034B99-E4EF-41D8-8723-B0F620C49749}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16020252-59AC-4E88-B695-96D3C1364171}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C0CC4-DB37-42CD-B200-C3A1775B2B6D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -11360,11 +11678,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11406,7 +11724,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -11493,6 +11811,9 @@
       <c r="C6" t="s">
         <v>66</v>
       </c>
+      <c r="H6" t="s">
+        <v>292</v>
+      </c>
       <c r="I6" t="s">
         <v>61</v>
       </c>
@@ -11531,6 +11852,9 @@
       <c r="C7" t="s">
         <v>258</v>
       </c>
+      <c r="H7" t="s">
+        <v>292</v>
+      </c>
       <c r="I7" t="s">
         <v>61</v>
       </c>
@@ -11551,6 +11875,9 @@
       <c r="C8" t="s">
         <v>283</v>
       </c>
+      <c r="H8" t="s">
+        <v>292</v>
+      </c>
       <c r="I8" t="s">
         <v>61</v>
       </c>
@@ -11568,6 +11895,26 @@
       </c>
       <c r="Q8" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6198DBCA-6F39-4256-8667-9B6465B8ED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E8581-A1ED-4C54-A2ED-A5B0E117485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="16" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Potentiometers" sheetId="24" r:id="rId24"/>
     <sheet name="DACs" sheetId="25" r:id="rId25"/>
     <sheet name="Voltage Reference" sheetId="26" r:id="rId26"/>
+    <sheet name="Voltage Sources" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="311">
   <si>
     <t>Part Number</t>
   </si>
@@ -1005,6 +1006,15 @@
   </si>
   <si>
     <t>Zener-AC</t>
+  </si>
+  <si>
+    <t>TPS60403DBVR</t>
+  </si>
+  <si>
+    <t>VoltageSources.SchLib</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
   </si>
 </sst>
 </file>
@@ -11293,8 +11303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C0CC4-DB37-42CD-B200-C3A1775B2B6D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11351,6 +11361,70 @@
       </c>
       <c r="G2">
         <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E8581-A1ED-4C54-A2ED-A5B0E117485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D07877B-66FB-4BF7-ADB1-A2901B9D0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="16" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="320">
   <si>
     <t>Part Number</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>Drain Current</t>
-  </si>
-  <si>
-    <t>240 В</t>
   </si>
   <si>
     <t>250 мА</t>
@@ -1015,6 +1012,36 @@
   </si>
   <si>
     <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>IRF9640PBF</t>
+  </si>
+  <si>
+    <t>MOSFET-P GDS</t>
+  </si>
+  <si>
+    <t>P-ch</t>
+  </si>
+  <si>
+    <t>240В</t>
+  </si>
+  <si>
+    <t>200В</t>
+  </si>
+  <si>
+    <t>11А</t>
+  </si>
+  <si>
+    <t>0,5Ом</t>
+  </si>
+  <si>
+    <t>BC807</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>BJT-PNP-BEC</t>
   </si>
 </sst>
 </file>
@@ -8192,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -8209,182 +8236,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8417,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -8434,182 +8461,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
         <v>187</v>
       </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>188</v>
-      </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8644,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -8661,16 +8688,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -8681,16 +8708,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -8701,16 +8728,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -8721,16 +8748,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
@@ -8741,16 +8768,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
@@ -8761,16 +8788,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
@@ -8781,16 +8808,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -8801,16 +8828,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -8821,16 +8848,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -8841,16 +8868,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -8861,16 +8888,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
@@ -8887,7 +8914,7 @@
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
@@ -8901,13 +8928,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -8921,16 +8948,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -8941,16 +8968,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -8961,16 +8988,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -8981,16 +9008,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -9001,16 +9028,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -9021,16 +9048,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -9041,16 +9068,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
@@ -9061,16 +9088,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
@@ -9081,16 +9108,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
@@ -9101,16 +9128,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -9149,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -9166,462 +9193,462 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -9654,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -9671,322 +9698,322 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
         <v>208</v>
       </c>
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>209</v>
-      </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
         <v>210</v>
       </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" t="s">
-        <v>211</v>
-      </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
         <v>212</v>
       </c>
-      <c r="B13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
         <v>214</v>
       </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>215</v>
-      </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="B17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" t="s">
-        <v>217</v>
-      </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10018,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -10035,322 +10062,322 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
         <v>198</v>
       </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>199</v>
-      </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
         <v>200</v>
       </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
-        <v>201</v>
-      </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
         <v>202</v>
       </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>203</v>
-      </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
         <v>204</v>
       </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>205</v>
-      </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" t="s">
         <v>206</v>
       </c>
-      <c r="B17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" t="s">
-        <v>207</v>
-      </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -10382,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -10399,62 +10426,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
         <v>238</v>
       </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
         <v>239</v>
-      </c>
-      <c r="D3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10489,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -10525,13 +10552,13 @@
         <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>72</v>
@@ -10539,56 +10566,56 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" t="s">
         <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" t="s">
         <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
         <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10631,27 +10658,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -10698,30 +10725,30 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>261</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>262</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -10878,47 +10905,47 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
         <v>263</v>
       </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>264</v>
       </c>
-      <c r="E2" t="s">
-        <v>265</v>
-      </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" t="s">
         <v>299</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" t="s">
         <v>300</v>
-      </c>
-      <c r="D3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -10961,27 +10988,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
         <v>267</v>
       </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" t="s">
         <v>266</v>
-      </c>
-      <c r="D2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -11025,7 +11052,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>48</v>
@@ -11033,48 +11060,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" t="s">
         <v>288</v>
-      </c>
-      <c r="G3" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -11119,39 +11146,39 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
         <v>278</v>
       </c>
-      <c r="F2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>279</v>
-      </c>
-      <c r="H2" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -11194,33 +11221,33 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>296</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" t="s">
-        <v>296</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -11265,30 +11292,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -11334,30 +11361,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
         <v>306</v>
-      </c>
-      <c r="B2" t="s">
-        <v>307</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G2">
         <v>2.5</v>
@@ -11372,7 +11399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11401,30 +11428,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
         <v>308</v>
       </c>
-      <c r="B2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" t="s">
-        <v>309</v>
-      </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -11752,11 +11779,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11798,7 +11825,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -11813,19 +11840,19 @@
         <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -11880,13 +11907,13 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
@@ -11895,19 +11922,19 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>313</v>
+      </c>
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
         <v>73</v>
@@ -11918,39 +11945,39 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
         <v>255</v>
       </c>
-      <c r="B7" t="s">
-        <v>256</v>
-      </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" t="s">
         <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
         <v>282</v>
       </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>283</v>
-      </c>
       <c r="H8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" t="s">
         <v>61</v>
@@ -11959,36 +11986,91 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" t="s">
         <v>284</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>285</v>
       </c>
-      <c r="M8" t="s">
-        <v>286</v>
-      </c>
       <c r="Q8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L10" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -12023,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -12040,16 +12122,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
@@ -12060,16 +12142,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -12080,16 +12162,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -12100,16 +12182,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
@@ -12120,16 +12202,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
@@ -12146,7 +12228,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
@@ -12160,16 +12242,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
@@ -12180,16 +12262,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -12200,16 +12282,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
@@ -12220,16 +12302,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -12240,16 +12322,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
@@ -12287,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -12304,222 +12386,222 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D07877B-66FB-4BF7-ADB1-A2901B9D0D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF4E29-58C5-4834-A715-2E6F19541837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="17" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="DACs" sheetId="25" r:id="rId25"/>
     <sheet name="Voltage Reference" sheetId="26" r:id="rId26"/>
     <sheet name="Voltage Sources" sheetId="27" r:id="rId27"/>
+    <sheet name="MCU" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="324">
   <si>
     <t>Part Number</t>
   </si>
@@ -1042,6 +1043,18 @@
   </si>
   <si>
     <t>BJT-PNP-BEC</t>
+  </si>
+  <si>
+    <t>LQFP64</t>
+  </si>
+  <si>
+    <t>LQFP.PcbLib</t>
+  </si>
+  <si>
+    <t>MCU.SchLib</t>
+  </si>
+  <si>
+    <t>K1986BE92QI</t>
   </si>
 </sst>
 </file>
@@ -11400,7 +11413,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11452,6 +11465,62 @@
       </c>
       <c r="F2" t="s">
         <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -11781,7 +11850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80583BE-6DA8-447C-BA68-380D36F64E65}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF4E29-58C5-4834-A715-2E6F19541837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F910B7C-7606-45AE-BCF5-C6480A0B5165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="17" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32715" yWindow="4215" windowWidth="24885" windowHeight="11385" firstSheet="21" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="Voltage Reference" sheetId="26" r:id="rId26"/>
     <sheet name="Voltage Sources" sheetId="27" r:id="rId27"/>
     <sheet name="MCU" sheetId="28" r:id="rId28"/>
+    <sheet name="Converters" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="333">
   <si>
     <t>Part Number</t>
   </si>
@@ -1055,6 +1056,33 @@
   </si>
   <si>
     <t>K1986BE92QI</t>
+  </si>
+  <si>
+    <t>PGB1010603MR</t>
+  </si>
+  <si>
+    <t>Zener-Duplex</t>
+  </si>
+  <si>
+    <t>RES_SMD.PcbLib</t>
+  </si>
+  <si>
+    <t>CP2102-GMR</t>
+  </si>
+  <si>
+    <t>PQFN-28</t>
+  </si>
+  <si>
+    <t>Converters.SchLib</t>
+  </si>
+  <si>
+    <t>QFN.PcbLib</t>
+  </si>
+  <si>
+    <t>X/Y</t>
+  </si>
+  <si>
+    <t>USB-UART</t>
   </si>
 </sst>
 </file>
@@ -10505,18 +10533,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -10631,8 +10659,29 @@
         <v>269</v>
       </c>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11476,8 +11525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11521,6 +11570,69 @@
       </c>
       <c r="E2" t="s">
         <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841E41E-3033-4328-9AAE-D6BAE19485E1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F910B7C-7606-45AE-BCF5-C6480A0B5165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA4663-6671-4BE1-B5A2-8392DAC41973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="4215" windowWidth="24885" windowHeight="11385" firstSheet="21" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,9 @@
     <sheet name="PBS Connectors" sheetId="10" r:id="rId13"/>
     <sheet name="PLD Connectors" sheetId="13" r:id="rId14"/>
     <sheet name="PBD Connectors" sheetId="15" r:id="rId15"/>
-    <sheet name="DIP Switches" sheetId="16" r:id="rId16"/>
+    <sheet name="Switches" sheetId="16" r:id="rId16"/>
     <sheet name="Diodes" sheetId="17" r:id="rId17"/>
-    <sheet name="РЭС15" sheetId="18" r:id="rId18"/>
+    <sheet name="Relays" sheetId="18" r:id="rId18"/>
     <sheet name="SQP Res" sheetId="19" r:id="rId19"/>
     <sheet name="OpAmps" sheetId="20" r:id="rId20"/>
     <sheet name="Analog ICs" sheetId="21" r:id="rId21"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="337">
   <si>
     <t>Part Number</t>
   </si>
@@ -1064,9 +1064,6 @@
     <t>Zener-Duplex</t>
   </si>
   <si>
-    <t>RES_SMD.PcbLib</t>
-  </si>
-  <si>
     <t>CP2102-GMR</t>
   </si>
   <si>
@@ -1083,6 +1080,21 @@
   </si>
   <si>
     <t>USB-UART</t>
+  </si>
+  <si>
+    <t>Commet</t>
+  </si>
+  <si>
+    <t>Jumper-2</t>
+  </si>
+  <si>
+    <t>Switch-3</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED-CA</t>
   </si>
 </sst>
 </file>
@@ -1448,11 +1460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J104" activeCellId="1" sqref="B104 J104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1479,7 @@
     <col min="12" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1516,11 @@
       <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1542,8 +1557,11 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE("Resistor ",L3)</f>
         <v>Resistor 1</v>
@@ -1581,8 +1599,11 @@
       <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">CONCATENATE("Resistor ",L4)</f>
         <v>Resistor 1,1</v>
@@ -1620,8 +1641,11 @@
       <c r="L4" s="2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,2</v>
@@ -1659,8 +1683,11 @@
       <c r="L5" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,3</v>
@@ -1698,8 +1725,11 @@
       <c r="L6" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,5</v>
@@ -1737,8 +1767,11 @@
       <c r="L7" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,6</v>
@@ -1776,8 +1809,11 @@
       <c r="L8" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,8</v>
@@ -1815,8 +1851,11 @@
       <c r="L9" s="2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2</v>
@@ -1854,8 +1893,11 @@
       <c r="L10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2,2</v>
@@ -1893,8 +1935,11 @@
       <c r="L11" s="2">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2,4</v>
@@ -1932,8 +1977,11 @@
       <c r="L12" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2,7</v>
@@ -1971,8 +2019,11 @@
       <c r="L13" s="2">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3</v>
@@ -2010,8 +2061,11 @@
       <c r="L14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3,3</v>
@@ -2049,8 +2103,11 @@
       <c r="L15" s="2">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3,6</v>
@@ -2088,8 +2145,11 @@
       <c r="L16" s="2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3,9</v>
@@ -2127,8 +2187,11 @@
       <c r="L17" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 4,3</v>
@@ -2166,8 +2229,11 @@
       <c r="L18" s="2">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 4,7</v>
@@ -2205,8 +2271,11 @@
       <c r="L19" s="2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 5,1</v>
@@ -2244,8 +2313,11 @@
       <c r="L20" s="2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 5,6</v>
@@ -2283,8 +2355,11 @@
       <c r="L21" s="2">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 6,2</v>
@@ -2322,8 +2397,11 @@
       <c r="L22" s="2">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 6,8</v>
@@ -2361,8 +2439,11 @@
       <c r="L23" s="2">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 7,5</v>
@@ -2400,8 +2481,11 @@
       <c r="L24" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 8,2</v>
@@ -2439,8 +2523,11 @@
       <c r="L25" s="2">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 9,1</v>
@@ -2478,8 +2565,11 @@
       <c r="L26" s="2">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 10</v>
@@ -2517,8 +2607,11 @@
       <c r="L27" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 11</v>
@@ -2556,8 +2649,11 @@
       <c r="L28" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 12</v>
@@ -2595,8 +2691,11 @@
       <c r="L29" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 13</v>
@@ -2634,8 +2733,11 @@
       <c r="L30" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 15</v>
@@ -2673,8 +2775,11 @@
       <c r="L31" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 16</v>
@@ -2712,8 +2817,11 @@
       <c r="L32" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 18</v>
@@ -2751,8 +2859,11 @@
       <c r="L33" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 20</v>
@@ -2790,8 +2901,11 @@
       <c r="L34" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 22</v>
@@ -2829,8 +2943,11 @@
       <c r="L35" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 24</v>
@@ -2868,8 +2985,11 @@
       <c r="L36" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 27</v>
@@ -2907,8 +3027,11 @@
       <c r="L37" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 30</v>
@@ -2946,8 +3069,11 @@
       <c r="L38" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 33</v>
@@ -2985,8 +3111,11 @@
       <c r="L39" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 36</v>
@@ -3024,8 +3153,11 @@
       <c r="L40" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 39</v>
@@ -3063,8 +3195,11 @@
       <c r="L41" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 43</v>
@@ -3102,8 +3237,11 @@
       <c r="L42" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 47</v>
@@ -3141,8 +3279,11 @@
       <c r="L43" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 51</v>
@@ -3180,8 +3321,11 @@
       <c r="L44" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 56</v>
@@ -3219,8 +3363,11 @@
       <c r="L45" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 62</v>
@@ -3258,8 +3405,11 @@
       <c r="L46" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 68</v>
@@ -3297,8 +3447,11 @@
       <c r="L47" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 75</v>
@@ -3336,8 +3489,11 @@
       <c r="L48" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 82</v>
@@ -3375,8 +3531,11 @@
       <c r="L49" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 91</v>
@@ -3414,8 +3573,11 @@
       <c r="L50" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 100</v>
@@ -3453,8 +3615,11 @@
       <c r="L51" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 110</v>
@@ -3492,8 +3657,11 @@
       <c r="L52" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 120</v>
@@ -3531,8 +3699,11 @@
       <c r="L53" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 130</v>
@@ -3570,8 +3741,11 @@
       <c r="L54" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 150</v>
@@ -3609,8 +3783,11 @@
       <c r="L55" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 160</v>
@@ -3648,8 +3825,11 @@
       <c r="L56" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 180</v>
@@ -3687,8 +3867,11 @@
       <c r="L57" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 200</v>
@@ -3726,8 +3909,11 @@
       <c r="L58" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 220</v>
@@ -3765,8 +3951,11 @@
       <c r="L59" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 240</v>
@@ -3804,8 +3993,11 @@
       <c r="L60" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 270</v>
@@ -3843,8 +4035,11 @@
       <c r="L61" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 300</v>
@@ -3882,8 +4077,11 @@
       <c r="L62" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 330</v>
@@ -3921,8 +4119,11 @@
       <c r="L63" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 360</v>
@@ -3960,8 +4161,11 @@
       <c r="L64" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 390</v>
@@ -3999,8 +4203,11 @@
       <c r="L65" s="2">
         <v>390</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 430</v>
@@ -4038,8 +4245,11 @@
       <c r="L66" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 470</v>
@@ -4077,8 +4287,11 @@
       <c r="L67" s="2">
         <v>470</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">CONCATENATE("Resistor ",L68)</f>
         <v>Resistor 510</v>
@@ -4116,8 +4329,11 @@
       <c r="L68" s="2">
         <v>510</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 560</v>
@@ -4155,8 +4371,11 @@
       <c r="L69" s="2">
         <v>560</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 620</v>
@@ -4194,8 +4413,11 @@
       <c r="L70" s="2">
         <v>620</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 680</v>
@@ -4233,8 +4455,11 @@
       <c r="L71" s="2">
         <v>680</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 750</v>
@@ -4272,8 +4497,11 @@
       <c r="L72" s="2">
         <v>750</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 820</v>
@@ -4311,8 +4539,11 @@
       <c r="L73" s="2">
         <v>820</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 910</v>
@@ -4350,8 +4581,11 @@
       <c r="L74" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1K</v>
@@ -4390,8 +4624,12 @@
         <f>CONCATENATE(L3,"K")</f>
         <v>1K</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="str">
+        <f>CONCATENATE(M3,"K")</f>
+        <v>1K</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,1K</v>
@@ -4427,11 +4665,15 @@
         <v>62</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" ref="L76:L139" si="2">CONCATENATE(L4,"K")</f>
+        <f t="shared" ref="L76:M139" si="2">CONCATENATE(L4,"K")</f>
         <v>1,1K</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="str">
+        <f t="shared" si="2"/>
+        <v>1,1K</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,2K</v>
@@ -4470,8 +4712,12 @@
         <f t="shared" si="2"/>
         <v>1,2K</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="str">
+        <f t="shared" si="2"/>
+        <v>1,2K</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,3K</v>
@@ -4510,8 +4756,12 @@
         <f t="shared" si="2"/>
         <v>1,3K</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="str">
+        <f t="shared" si="2"/>
+        <v>1,3K</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,5K</v>
@@ -4550,8 +4800,12 @@
         <f t="shared" si="2"/>
         <v>1,5K</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="str">
+        <f t="shared" si="2"/>
+        <v>1,5K</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,6K</v>
@@ -4590,8 +4844,12 @@
         <f t="shared" si="2"/>
         <v>1,6K</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="str">
+        <f t="shared" si="2"/>
+        <v>1,6K</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,8K</v>
@@ -4630,8 +4888,12 @@
         <f t="shared" si="2"/>
         <v>1,8K</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="str">
+        <f t="shared" si="2"/>
+        <v>1,8K</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2K</v>
@@ -4670,8 +4932,12 @@
         <f t="shared" si="2"/>
         <v>2K</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="str">
+        <f t="shared" si="2"/>
+        <v>2K</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2,2K</v>
@@ -4710,8 +4976,12 @@
         <f t="shared" si="2"/>
         <v>2,2K</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="str">
+        <f t="shared" si="2"/>
+        <v>2,2K</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2,4K</v>
@@ -4750,8 +5020,12 @@
         <f t="shared" si="2"/>
         <v>2,4K</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="str">
+        <f t="shared" si="2"/>
+        <v>2,4K</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2,7K</v>
@@ -4790,8 +5064,12 @@
         <f t="shared" si="2"/>
         <v>2,7K</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="str">
+        <f t="shared" si="2"/>
+        <v>2,7K</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3K</v>
@@ -4830,8 +5108,12 @@
         <f t="shared" si="2"/>
         <v>3K</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="str">
+        <f t="shared" si="2"/>
+        <v>3K</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3,3K</v>
@@ -4870,8 +5152,12 @@
         <f t="shared" si="2"/>
         <v>3,3K</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="str">
+        <f t="shared" si="2"/>
+        <v>3,3K</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3,6K</v>
@@ -4910,8 +5196,12 @@
         <f t="shared" si="2"/>
         <v>3,6K</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="str">
+        <f t="shared" si="2"/>
+        <v>3,6K</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3,9K</v>
@@ -4950,8 +5240,12 @@
         <f t="shared" si="2"/>
         <v>3,9K</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="str">
+        <f t="shared" si="2"/>
+        <v>3,9K</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 4,3K</v>
@@ -4990,8 +5284,12 @@
         <f t="shared" si="2"/>
         <v>4,3K</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="str">
+        <f t="shared" si="2"/>
+        <v>4,3K</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 4,7K</v>
@@ -5030,8 +5328,12 @@
         <f t="shared" si="2"/>
         <v>4,7K</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="str">
+        <f t="shared" si="2"/>
+        <v>4,7K</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 5,1K</v>
@@ -5070,8 +5372,12 @@
         <f t="shared" si="2"/>
         <v>5,1K</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="str">
+        <f t="shared" si="2"/>
+        <v>5,1K</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 5,6K</v>
@@ -5110,8 +5416,12 @@
         <f t="shared" si="2"/>
         <v>5,6K</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="str">
+        <f t="shared" si="2"/>
+        <v>5,6K</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 6,2K</v>
@@ -5150,8 +5460,12 @@
         <f t="shared" si="2"/>
         <v>6,2K</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" t="str">
+        <f t="shared" si="2"/>
+        <v>6,2K</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 6,8K</v>
@@ -5190,8 +5504,12 @@
         <f t="shared" si="2"/>
         <v>6,8K</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="str">
+        <f t="shared" si="2"/>
+        <v>6,8K</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 7,5K</v>
@@ -5230,8 +5548,12 @@
         <f t="shared" si="2"/>
         <v>7,5K</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="str">
+        <f t="shared" si="2"/>
+        <v>7,5K</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 8,2K</v>
@@ -5270,8 +5592,12 @@
         <f t="shared" si="2"/>
         <v>8,2K</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" t="str">
+        <f t="shared" si="2"/>
+        <v>8,2K</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 9,1K</v>
@@ -5310,8 +5636,12 @@
         <f t="shared" si="2"/>
         <v>9,1K</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" t="str">
+        <f t="shared" si="2"/>
+        <v>9,1K</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 10K</v>
@@ -5350,8 +5680,12 @@
         <f t="shared" si="2"/>
         <v>10K</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" t="str">
+        <f t="shared" si="2"/>
+        <v>10K</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 11K</v>
@@ -5390,8 +5724,12 @@
         <f t="shared" si="2"/>
         <v>11K</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" t="str">
+        <f t="shared" si="2"/>
+        <v>11K</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 12K</v>
@@ -5430,8 +5768,12 @@
         <f t="shared" si="2"/>
         <v>12K</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="str">
+        <f t="shared" si="2"/>
+        <v>12K</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 13K</v>
@@ -5470,8 +5812,12 @@
         <f t="shared" si="2"/>
         <v>13K</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="str">
+        <f t="shared" si="2"/>
+        <v>13K</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 15K</v>
@@ -5510,8 +5856,12 @@
         <f t="shared" si="2"/>
         <v>15K</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="str">
+        <f t="shared" si="2"/>
+        <v>15K</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 16K</v>
@@ -5550,8 +5900,12 @@
         <f t="shared" si="2"/>
         <v>16K</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" t="str">
+        <f t="shared" si="2"/>
+        <v>16K</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 18K</v>
@@ -5590,8 +5944,12 @@
         <f t="shared" si="2"/>
         <v>18K</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="str">
+        <f t="shared" si="2"/>
+        <v>18K</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 20K</v>
@@ -5630,8 +5988,12 @@
         <f t="shared" si="2"/>
         <v>20K</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" t="str">
+        <f t="shared" si="2"/>
+        <v>20K</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 22K</v>
@@ -5670,8 +6032,12 @@
         <f t="shared" si="2"/>
         <v>22K</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" t="str">
+        <f t="shared" si="2"/>
+        <v>22K</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 24K</v>
@@ -5710,8 +6076,12 @@
         <f t="shared" si="2"/>
         <v>24K</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="str">
+        <f t="shared" si="2"/>
+        <v>24K</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 27K</v>
@@ -5750,8 +6120,12 @@
         <f t="shared" si="2"/>
         <v>27K</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" t="str">
+        <f t="shared" si="2"/>
+        <v>27K</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 30K</v>
@@ -5790,8 +6164,12 @@
         <f t="shared" si="2"/>
         <v>30K</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="str">
+        <f t="shared" si="2"/>
+        <v>30K</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 33K</v>
@@ -5830,8 +6208,12 @@
         <f t="shared" si="2"/>
         <v>33K</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="str">
+        <f t="shared" si="2"/>
+        <v>33K</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 36K</v>
@@ -5870,8 +6252,12 @@
         <f t="shared" si="2"/>
         <v>36K</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="str">
+        <f t="shared" si="2"/>
+        <v>36K</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 39K</v>
@@ -5910,8 +6296,12 @@
         <f t="shared" si="2"/>
         <v>39K</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="str">
+        <f t="shared" si="2"/>
+        <v>39K</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 43K</v>
@@ -5950,8 +6340,12 @@
         <f t="shared" si="2"/>
         <v>43K</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" t="str">
+        <f t="shared" si="2"/>
+        <v>43K</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 47K</v>
@@ -5990,8 +6384,12 @@
         <f t="shared" si="2"/>
         <v>47K</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" t="str">
+        <f t="shared" si="2"/>
+        <v>47K</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 51K</v>
@@ -6030,8 +6428,12 @@
         <f t="shared" si="2"/>
         <v>51K</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="str">
+        <f t="shared" si="2"/>
+        <v>51K</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 56K</v>
@@ -6070,8 +6472,12 @@
         <f t="shared" si="2"/>
         <v>56K</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="str">
+        <f t="shared" si="2"/>
+        <v>56K</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 62K</v>
@@ -6110,8 +6516,12 @@
         <f t="shared" si="2"/>
         <v>62K</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="str">
+        <f t="shared" si="2"/>
+        <v>62K</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 68K</v>
@@ -6150,8 +6560,12 @@
         <f t="shared" si="2"/>
         <v>68K</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" t="str">
+        <f t="shared" si="2"/>
+        <v>68K</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 75K</v>
@@ -6190,8 +6604,12 @@
         <f t="shared" si="2"/>
         <v>75K</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" t="str">
+        <f t="shared" si="2"/>
+        <v>75K</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 82K</v>
@@ -6230,8 +6648,12 @@
         <f t="shared" si="2"/>
         <v>82K</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" t="str">
+        <f t="shared" si="2"/>
+        <v>82K</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 91K</v>
@@ -6270,8 +6692,12 @@
         <f t="shared" si="2"/>
         <v>91K</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" t="str">
+        <f t="shared" si="2"/>
+        <v>91K</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 100K</v>
@@ -6310,8 +6736,12 @@
         <f t="shared" si="2"/>
         <v>100K</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" t="str">
+        <f t="shared" si="2"/>
+        <v>100K</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 110K</v>
@@ -6350,8 +6780,12 @@
         <f t="shared" si="2"/>
         <v>110K</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" t="str">
+        <f t="shared" si="2"/>
+        <v>110K</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 120K</v>
@@ -6390,8 +6824,12 @@
         <f t="shared" si="2"/>
         <v>120K</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" t="str">
+        <f t="shared" si="2"/>
+        <v>120K</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 130K</v>
@@ -6430,8 +6868,12 @@
         <f t="shared" si="2"/>
         <v>130K</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" t="str">
+        <f t="shared" si="2"/>
+        <v>130K</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 150K</v>
@@ -6470,8 +6912,12 @@
         <f t="shared" si="2"/>
         <v>150K</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" t="str">
+        <f t="shared" si="2"/>
+        <v>150K</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 160K</v>
@@ -6510,8 +6956,12 @@
         <f t="shared" si="2"/>
         <v>160K</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" t="str">
+        <f t="shared" si="2"/>
+        <v>160K</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 180K</v>
@@ -6550,8 +7000,12 @@
         <f t="shared" si="2"/>
         <v>180K</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" t="str">
+        <f t="shared" si="2"/>
+        <v>180K</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 200K</v>
@@ -6590,8 +7044,12 @@
         <f t="shared" si="2"/>
         <v>200K</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" t="str">
+        <f t="shared" si="2"/>
+        <v>200K</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 220K</v>
@@ -6630,8 +7088,12 @@
         <f t="shared" si="2"/>
         <v>220K</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" t="str">
+        <f t="shared" si="2"/>
+        <v>220K</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A171" si="3">CONCATENATE("Resistor ",L132)</f>
         <v>Resistor 240K</v>
@@ -6670,8 +7132,12 @@
         <f t="shared" si="2"/>
         <v>240K</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" t="str">
+        <f t="shared" si="2"/>
+        <v>240K</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 270K</v>
@@ -6710,8 +7176,12 @@
         <f t="shared" si="2"/>
         <v>270K</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" t="str">
+        <f t="shared" si="2"/>
+        <v>270K</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 300K</v>
@@ -6750,8 +7220,12 @@
         <f t="shared" si="2"/>
         <v>300K</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" t="str">
+        <f t="shared" si="2"/>
+        <v>300K</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 330K</v>
@@ -6790,8 +7264,12 @@
         <f t="shared" si="2"/>
         <v>330K</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" t="str">
+        <f t="shared" si="2"/>
+        <v>330K</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 360K</v>
@@ -6830,8 +7308,12 @@
         <f t="shared" si="2"/>
         <v>360K</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" t="str">
+        <f t="shared" si="2"/>
+        <v>360K</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 390K</v>
@@ -6870,8 +7352,12 @@
         <f t="shared" si="2"/>
         <v>390K</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" t="str">
+        <f t="shared" si="2"/>
+        <v>390K</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 430K</v>
@@ -6910,8 +7396,12 @@
         <f t="shared" si="2"/>
         <v>430K</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" t="str">
+        <f t="shared" si="2"/>
+        <v>430K</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 470K</v>
@@ -6950,8 +7440,12 @@
         <f t="shared" si="2"/>
         <v>470K</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" t="str">
+        <f t="shared" si="2"/>
+        <v>470K</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 510K</v>
@@ -6987,11 +7481,15 @@
         <v>62</v>
       </c>
       <c r="L140" t="str">
-        <f t="shared" ref="L140:L146" si="4">CONCATENATE(L68,"K")</f>
+        <f t="shared" ref="L140:M146" si="4">CONCATENATE(L68,"K")</f>
         <v>510K</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" t="str">
+        <f t="shared" si="4"/>
+        <v>510K</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 560K</v>
@@ -7030,8 +7528,12 @@
         <f t="shared" si="4"/>
         <v>560K</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" t="str">
+        <f t="shared" si="4"/>
+        <v>560K</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 620K</v>
@@ -7070,8 +7572,12 @@
         <f t="shared" si="4"/>
         <v>620K</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" t="str">
+        <f t="shared" si="4"/>
+        <v>620K</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 680K</v>
@@ -7110,8 +7616,12 @@
         <f t="shared" si="4"/>
         <v>680K</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" t="str">
+        <f t="shared" si="4"/>
+        <v>680K</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 750K</v>
@@ -7150,8 +7660,12 @@
         <f t="shared" si="4"/>
         <v>750K</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" t="str">
+        <f t="shared" si="4"/>
+        <v>750K</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 820K</v>
@@ -7190,8 +7704,12 @@
         <f t="shared" si="4"/>
         <v>820K</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" t="str">
+        <f t="shared" si="4"/>
+        <v>820K</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 910K</v>
@@ -7230,8 +7748,12 @@
         <f t="shared" si="4"/>
         <v>910K</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" t="str">
+        <f t="shared" si="4"/>
+        <v>910K</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1M</v>
@@ -7270,8 +7792,12 @@
         <f>CONCATENATE(L3,"M")</f>
         <v>1M</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" t="str">
+        <f>CONCATENATE(M3,"M")</f>
+        <v>1M</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,1M</v>
@@ -7307,11 +7833,15 @@
         <v>62</v>
       </c>
       <c r="L148" t="str">
-        <f t="shared" ref="L148:L171" si="5">CONCATENATE(L4,"M")</f>
+        <f t="shared" ref="L148:M171" si="5">CONCATENATE(L4,"M")</f>
         <v>1,1M</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" t="str">
+        <f t="shared" si="5"/>
+        <v>1,1M</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,2M</v>
@@ -7350,8 +7880,12 @@
         <f t="shared" si="5"/>
         <v>1,2M</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" t="str">
+        <f t="shared" si="5"/>
+        <v>1,2M</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,3M</v>
@@ -7390,8 +7924,12 @@
         <f t="shared" si="5"/>
         <v>1,3M</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" t="str">
+        <f t="shared" si="5"/>
+        <v>1,3M</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,5M</v>
@@ -7430,8 +7968,12 @@
         <f t="shared" si="5"/>
         <v>1,5M</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" t="str">
+        <f t="shared" si="5"/>
+        <v>1,5M</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,6M</v>
@@ -7470,8 +8012,12 @@
         <f t="shared" si="5"/>
         <v>1,6M</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" t="str">
+        <f t="shared" si="5"/>
+        <v>1,6M</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,8M</v>
@@ -7510,8 +8056,12 @@
         <f t="shared" si="5"/>
         <v>1,8M</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" t="str">
+        <f t="shared" si="5"/>
+        <v>1,8M</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2M</v>
@@ -7550,8 +8100,12 @@
         <f t="shared" si="5"/>
         <v>2M</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" t="str">
+        <f t="shared" si="5"/>
+        <v>2M</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2,2M</v>
@@ -7590,8 +8144,12 @@
         <f t="shared" si="5"/>
         <v>2,2M</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" t="str">
+        <f t="shared" si="5"/>
+        <v>2,2M</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2,4M</v>
@@ -7630,8 +8188,12 @@
         <f t="shared" si="5"/>
         <v>2,4M</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" t="str">
+        <f t="shared" si="5"/>
+        <v>2,4M</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2,7M</v>
@@ -7670,8 +8232,12 @@
         <f t="shared" si="5"/>
         <v>2,7M</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" t="str">
+        <f t="shared" si="5"/>
+        <v>2,7M</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3M</v>
@@ -7710,8 +8276,12 @@
         <f t="shared" si="5"/>
         <v>3M</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" t="str">
+        <f t="shared" si="5"/>
+        <v>3M</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3,3M</v>
@@ -7750,8 +8320,12 @@
         <f t="shared" si="5"/>
         <v>3,3M</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" t="str">
+        <f t="shared" si="5"/>
+        <v>3,3M</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3,6M</v>
@@ -7790,8 +8364,12 @@
         <f t="shared" si="5"/>
         <v>3,6M</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" t="str">
+        <f t="shared" si="5"/>
+        <v>3,6M</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3,9M</v>
@@ -7830,8 +8408,12 @@
         <f t="shared" si="5"/>
         <v>3,9M</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" t="str">
+        <f t="shared" si="5"/>
+        <v>3,9M</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 4,3M</v>
@@ -7870,8 +8452,12 @@
         <f t="shared" si="5"/>
         <v>4,3M</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" t="str">
+        <f t="shared" si="5"/>
+        <v>4,3M</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 4,7M</v>
@@ -7910,8 +8496,12 @@
         <f t="shared" si="5"/>
         <v>4,7M</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" t="str">
+        <f t="shared" si="5"/>
+        <v>4,7M</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 5,1M</v>
@@ -7950,8 +8540,12 @@
         <f t="shared" si="5"/>
         <v>5,1M</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" t="str">
+        <f t="shared" si="5"/>
+        <v>5,1M</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 5,6M</v>
@@ -7990,8 +8584,12 @@
         <f t="shared" si="5"/>
         <v>5,6M</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" t="str">
+        <f t="shared" si="5"/>
+        <v>5,6M</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 6,2M</v>
@@ -8030,8 +8628,12 @@
         <f t="shared" si="5"/>
         <v>6,2M</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" t="str">
+        <f t="shared" si="5"/>
+        <v>6,2M</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 6,8M</v>
@@ -8070,8 +8672,12 @@
         <f t="shared" si="5"/>
         <v>6,8M</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" t="str">
+        <f t="shared" si="5"/>
+        <v>6,8M</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 7,5M</v>
@@ -8110,8 +8716,12 @@
         <f t="shared" si="5"/>
         <v>7,5M</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" t="str">
+        <f t="shared" si="5"/>
+        <v>7,5M</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 8,2M</v>
@@ -8150,8 +8760,12 @@
         <f t="shared" si="5"/>
         <v>8,2M</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" t="str">
+        <f t="shared" si="5"/>
+        <v>8,2M</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 9,1M</v>
@@ -8190,8 +8804,12 @@
         <f t="shared" si="5"/>
         <v>9,1M</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" t="str">
+        <f t="shared" si="5"/>
+        <v>9,1M</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 10M</v>
@@ -8227,6 +8845,10 @@
         <v>62</v>
       </c>
       <c r="L171" t="str">
+        <f t="shared" si="5"/>
+        <v>10M</v>
+      </c>
+      <c r="M171" t="str">
         <f t="shared" si="5"/>
         <v>10M</v>
       </c>
@@ -10433,7 +11055,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10450,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -10487,42 +11109,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
         <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="E4" t="s">
         <v>236</v>
-      </c>
-      <c r="F4" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10533,11 +11146,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10676,7 +11289,21 @@
         <v>242</v>
       </c>
       <c r="K5" t="s">
-        <v>326</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -10687,19 +11314,18 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047152A-FCBE-403C-A91A-439AB27AC722}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10741,6 +11367,46 @@
       </c>
       <c r="F2" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -11581,7 +12247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841E41E-3033-4328-9AAE-D6BAE19485E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -11612,27 +12278,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="B2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>328</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>329</v>
       </c>
-      <c r="E2" t="s">
-        <v>330</v>
-      </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA4663-6671-4BE1-B5A2-8392DAC41973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EECD8-588B-44F7-A135-5CCB8DD5D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,23 @@
     <sheet name="SMD Core Inductors" sheetId="5" r:id="rId5"/>
     <sheet name="Coaxile Connectors" sheetId="6" r:id="rId6"/>
     <sheet name="Transistors" sheetId="7" r:id="rId7"/>
-    <sheet name="PLS Table Connectors" sheetId="8" r:id="rId8"/>
-    <sheet name="PBS Table Connectors" sheetId="11" r:id="rId9"/>
-    <sheet name="PLD Table Connectors" sheetId="12" r:id="rId10"/>
-    <sheet name="PBD Table Connectors" sheetId="14" r:id="rId11"/>
-    <sheet name="PLS Conncetors" sheetId="9" r:id="rId12"/>
-    <sheet name="PBS Connectors" sheetId="10" r:id="rId13"/>
-    <sheet name="PLD Connectors" sheetId="13" r:id="rId14"/>
-    <sheet name="PBD Connectors" sheetId="15" r:id="rId15"/>
-    <sheet name="Switches" sheetId="16" r:id="rId16"/>
-    <sheet name="Diodes" sheetId="17" r:id="rId17"/>
-    <sheet name="Relays" sheetId="18" r:id="rId18"/>
-    <sheet name="SQP Res" sheetId="19" r:id="rId19"/>
-    <sheet name="OpAmps" sheetId="20" r:id="rId20"/>
-    <sheet name="Analog ICs" sheetId="21" r:id="rId21"/>
-    <sheet name="RLB Inductors" sheetId="22" r:id="rId22"/>
-    <sheet name="El Cap" sheetId="23" r:id="rId23"/>
-    <sheet name="Potentiometers" sheetId="24" r:id="rId24"/>
-    <sheet name="DACs" sheetId="25" r:id="rId25"/>
-    <sheet name="Voltage Reference" sheetId="26" r:id="rId26"/>
-    <sheet name="Voltage Sources" sheetId="27" r:id="rId27"/>
-    <sheet name="MCU" sheetId="28" r:id="rId28"/>
-    <sheet name="Converters" sheetId="29" r:id="rId29"/>
+    <sheet name="Table Connectors" sheetId="8" r:id="rId8"/>
+    <sheet name="Conncetors" sheetId="9" r:id="rId9"/>
+    <sheet name="Switches" sheetId="16" r:id="rId10"/>
+    <sheet name="Diodes" sheetId="17" r:id="rId11"/>
+    <sheet name="Relays" sheetId="18" r:id="rId12"/>
+    <sheet name="SQP Res" sheetId="19" r:id="rId13"/>
+    <sheet name="OpAmps" sheetId="20" r:id="rId14"/>
+    <sheet name="Analog ICs" sheetId="21" r:id="rId15"/>
+    <sheet name="RLB Inductors" sheetId="22" r:id="rId16"/>
+    <sheet name="El Cap" sheetId="23" r:id="rId17"/>
+    <sheet name="Potentiometers" sheetId="24" r:id="rId18"/>
+    <sheet name="DACs" sheetId="25" r:id="rId19"/>
+    <sheet name="Voltage Reference" sheetId="26" r:id="rId20"/>
+    <sheet name="Voltage Sources" sheetId="27" r:id="rId21"/>
+    <sheet name="MCU" sheetId="28" r:id="rId22"/>
+    <sheet name="Converters" sheetId="29" r:id="rId23"/>
+    <sheet name="Oscillators" sheetId="30" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="358">
   <si>
     <t>Part Number</t>
   </si>
@@ -311,9 +306,6 @@
   </si>
   <si>
     <t>1,2 В</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>MOSFET-N GDS</t>
@@ -1095,6 +1087,72 @@
   </si>
   <si>
     <t>LED-CA</t>
+  </si>
+  <si>
+    <t>USB.PcbLib</t>
+  </si>
+  <si>
+    <t>USB/M-1J(DS1104)</t>
+  </si>
+  <si>
+    <t>Цепь_1</t>
+  </si>
+  <si>
+    <t>Vdd</t>
+  </si>
+  <si>
+    <t>Цепь_2</t>
+  </si>
+  <si>
+    <t>Цепь_3</t>
+  </si>
+  <si>
+    <t>Цепь_4</t>
+  </si>
+  <si>
+    <t>Цепь_5</t>
+  </si>
+  <si>
+    <t>Цепь_6</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>D-</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>Switch-2</t>
+  </si>
+  <si>
+    <t>SPST</t>
+  </si>
+  <si>
+    <t>NX5032GA-8MHz</t>
+  </si>
+  <si>
+    <t>OSC</t>
+  </si>
+  <si>
+    <t>Oscillators.SchLib</t>
+  </si>
+  <si>
+    <t>XRCHA16M000F0A01R0</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>16 MHz</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8860,2202 +8918,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D1B9A-9A1D-4CEA-B90C-AFD0D9FD3631}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D34250-2336-4460-9501-0D1F046D8D2A}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2DF4A-4DF6-48C6-A5C1-4963A031A5FD}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252E21A-F9F9-4B96-B692-B82D09398689}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959D3CF7-9ACA-42EF-AC2D-CCD2A8F46DC3}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB8CB2-C1F3-41C6-B253-7F191E57DC3A}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11072,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -11089,53 +8957,70 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
         <v>234</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -11144,11 +9029,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
@@ -11170,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -11220,73 +9105,73 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" t="s">
         <v>268</v>
-      </c>
-      <c r="B4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
         <v>324</v>
       </c>
-      <c r="B5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" t="s">
-        <v>325</v>
-      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K5" t="s">
         <v>62</v>
@@ -11294,16 +9179,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
         <v>335</v>
       </c>
-      <c r="B6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" t="s">
-        <v>336</v>
-      </c>
       <c r="J6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -11312,7 +9197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047152A-FCBE-403C-A91A-439AB27AC722}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -11346,67 +9231,67 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
         <v>237</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
         <v>238</v>
       </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>236</v>
-      </c>
-      <c r="E3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" t="s">
         <v>248</v>
-      </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -11414,7 +9299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A472A1-95E4-4749-8DC1-78716A94C072}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -11453,30 +9338,486 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>259</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>260</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>261</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF9B95B-134C-4FD8-8A48-B6718728E3BB}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3FA756-703C-41CB-92CC-596399589CC9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADBAED-E8E5-4970-8DAA-34238D39F5D0}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB034B99-E4EF-41D8-8723-B0F620C49749}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16020252-59AC-4E88-B695-96D3C1364171}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -11599,462 +9940,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF9B95B-134C-4FD8-8A48-B6718728E3BB}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3FA756-703C-41CB-92CC-596399589CC9}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADBAED-E8E5-4970-8DAA-34238D39F5D0}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB034B99-E4EF-41D8-8723-B0F620C49749}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16020252-59AC-4E88-B695-96D3C1364171}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C0CC4-DB37-42CD-B200-C3A1775B2B6D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -12089,30 +9974,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
         <v>305</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G2">
         <v>2.5</v>
@@ -12123,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -12156,30 +10041,30 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
         <v>307</v>
       </c>
-      <c r="B2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -12187,7 +10072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -12223,19 +10108,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
         <v>320</v>
-      </c>
-      <c r="D2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -12243,7 +10128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841E41E-3033-4328-9AAE-D6BAE19485E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -12278,27 +10163,98 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>326</v>
       </c>
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A66D0-2486-4B81-8612-E82AD24841A3}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
       <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -12672,7 +10628,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -12699,7 +10655,7 @@
         <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -12754,13 +10710,13 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
@@ -12769,7 +10725,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L6" t="s">
         <v>76</v>
@@ -12792,39 +10748,39 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" t="s">
         <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
         <v>281</v>
       </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>282</v>
-      </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I8" t="s">
         <v>61</v>
@@ -12833,50 +10789,50 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" t="s">
         <v>283</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>284</v>
       </c>
-      <c r="M8" t="s">
-        <v>285</v>
-      </c>
       <c r="Q8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" t="s">
         <v>310</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" t="s">
         <v>311</v>
-      </c>
-      <c r="C10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H10" t="s">
-        <v>312</v>
       </c>
       <c r="I10" t="s">
         <v>61</v>
@@ -12885,39 +10841,39 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
+        <v>313</v>
+      </c>
+      <c r="L10" t="s">
         <v>314</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>315</v>
       </c>
-      <c r="M10" t="s">
-        <v>316</v>
-      </c>
       <c r="Q10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" t="s">
         <v>317</v>
-      </c>
-      <c r="B11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" t="s">
-        <v>318</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -12928,31 +10884,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -12966,19 +10920,37 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
@@ -12987,18 +10959,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -13007,18 +10979,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -13027,18 +10999,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
@@ -13047,18 +11019,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
@@ -13067,7 +11039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -13075,7 +11047,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
@@ -13087,18 +11059,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
@@ -13107,18 +11079,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -13127,18 +11099,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
@@ -13147,18 +11119,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -13167,24 +11139,642 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>337</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -13194,21 +11784,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEEEDFA-D892-45B4-A06A-71FD3CB1D261}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2DF4A-4DF6-48C6-A5C1-4963A031A5FD}">
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13216,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -13233,222 +11826,1562 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>228</v>
       </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>120</v>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EECD8-588B-44F7-A135-5CCB8DD5D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DB04BE-E6D3-4F46-863D-928EF8875D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="361">
   <si>
     <t>Part Number</t>
   </si>
@@ -1153,6 +1153,15 @@
   </si>
   <si>
     <t>16 MHz</t>
+  </si>
+  <si>
+    <t>ADHV4702-1</t>
+  </si>
+  <si>
+    <t>LFCSP.PcbLib</t>
+  </si>
+  <si>
+    <t>LFCSP-12</t>
   </si>
 </sst>
 </file>
@@ -9371,10 +9380,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9445,6 +9454,26 @@
       </c>
       <c r="F3" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -10195,7 +10224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A66D0-2486-4B81-8612-E82AD24841A3}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DB04BE-E6D3-4F46-863D-928EF8875D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EAA712-6607-4639-9451-0CDDD6030D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="3345" windowWidth="21600" windowHeight="11475" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="366">
   <si>
     <t>Part Number</t>
   </si>
@@ -1162,6 +1162,21 @@
   </si>
   <si>
     <t>LFCSP-12</t>
+  </si>
+  <si>
+    <t>BAS70-04</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dual Schottky</t>
+  </si>
+  <si>
+    <t>DoubleSchottky-AC</t>
+  </si>
+  <si>
+    <t>ECAP (К50-35) 22мк</t>
   </si>
 </sst>
 </file>
@@ -9040,26 +9055,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9076,43 +9091,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -9122,11 +9128,11 @@
       <c r="C2" t="s">
         <v>245</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -9139,14 +9145,14 @@
       <c r="D3" t="s">
         <v>244</v>
       </c>
-      <c r="J3" t="s">
+      <c r="G3" t="s">
         <v>241</v>
       </c>
-      <c r="K3" t="s">
+      <c r="H3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -9159,14 +9165,14 @@
       <c r="D4" t="s">
         <v>269</v>
       </c>
-      <c r="J4" t="s">
+      <c r="G4" t="s">
         <v>241</v>
       </c>
-      <c r="K4" t="s">
+      <c r="H4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>323</v>
       </c>
@@ -9179,14 +9185,14 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G5" t="s">
         <v>241</v>
       </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -9196,8 +9202,31 @@
       <c r="C6" t="s">
         <v>335</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G6" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -9383,7 +9412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9643,7 +9672,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9653,7 +9682,7 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9700,7 +9729,7 @@
         <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
         <v>277</v>
@@ -9856,11 +9885,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4164A9E-FF46-467E-B380-FA61312CCDD8}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9871,10 +9900,10 @@
     <col min="4" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9915,10 +9944,13 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9959,6 +9991,9 @@
         <v>63</v>
       </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
     </row>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EAA712-6607-4639-9451-0CDDD6030D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0516F9B-5125-4ED9-8307-3C254CE56A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3345" windowWidth="21600" windowHeight="11475" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="3345" windowWidth="21600" windowHeight="11475" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -9239,7 +9239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047152A-FCBE-403C-A91A-439AB27AC722}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -9411,7 +9411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0516F9B-5125-4ED9-8307-3C254CE56A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B955330-8FE5-44FD-8BE5-2C4A23368EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3345" windowWidth="21600" windowHeight="11475" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="381">
   <si>
     <t>Part Number</t>
   </si>
@@ -906,9 +906,6 @@
     <t>Voltage</t>
   </si>
   <si>
-    <t>ECAP (К50-35)</t>
-  </si>
-  <si>
     <t>JRB.PcbLib</t>
   </si>
   <si>
@@ -1177,6 +1174,54 @@
   </si>
   <si>
     <t>ECAP (К50-35) 22мк</t>
+  </si>
+  <si>
+    <t>AD620</t>
+  </si>
+  <si>
+    <t>ОУ</t>
+  </si>
+  <si>
+    <t>Инструментальный</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>WOG</t>
+  </si>
+  <si>
+    <t>WOG Package.PcbLib</t>
+  </si>
+  <si>
+    <t>2W10G-E4/51</t>
+  </si>
+  <si>
+    <t>Zener-CA</t>
+  </si>
+  <si>
+    <t>MiniMELF/SOD80</t>
+  </si>
+  <si>
+    <t>MELF Package.PcbLib</t>
+  </si>
+  <si>
+    <t>BZV55C18</t>
+  </si>
+  <si>
+    <t>Zener 18V</t>
+  </si>
+  <si>
+    <t>400В</t>
+  </si>
+  <si>
+    <t>100мк</t>
+  </si>
+  <si>
+    <t>ECAP (К50-35) 100мк</t>
+  </si>
+  <si>
+    <t>JRB18</t>
   </si>
 </sst>
 </file>
@@ -8964,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -9001,16 +9046,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
         <v>235</v>
@@ -9021,13 +9066,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
         <v>235</v>
@@ -9035,13 +9080,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
         <v>350</v>
       </c>
-      <c r="B5" t="s">
-        <v>351</v>
-      </c>
       <c r="C5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" t="s">
         <v>235</v>
@@ -9055,26 +9100,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9091,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -9099,26 +9143,8 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -9132,7 +9158,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -9152,7 +9178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -9172,15 +9198,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
         <v>323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -9192,41 +9218,87 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
         <v>334</v>
-      </c>
-      <c r="B6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" t="s">
-        <v>335</v>
       </c>
       <c r="G6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
         <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
         <v>241</v>
       </c>
       <c r="H7" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -9239,7 +9311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047152A-FCBE-403C-A91A-439AB27AC722}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -9409,10 +9481,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9423,9 +9495,10 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9444,13 +9517,16 @@
       <c r="F1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
         <v>264</v>
@@ -9464,16 +9540,19 @@
       <c r="F2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s">
         <v>297</v>
-      </c>
-      <c r="C3" t="s">
-        <v>298</v>
       </c>
       <c r="D3" t="s">
         <v>262</v>
@@ -9482,27 +9561,56 @@
         <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
         <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="G4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -9640,13 +9748,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -9655,10 +9763,10 @@
         <v>270</v>
       </c>
       <c r="F3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" t="s">
         <v>286</v>
-      </c>
-      <c r="G3" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -9669,20 +9777,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADBAED-E8E5-4970-8DAA-34238D39F5D0}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9714,28 +9822,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2" t="s">
         <v>276</v>
       </c>
-      <c r="F2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>277</v>
       </c>
-      <c r="H2" t="s">
-        <v>278</v>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -9789,22 +9923,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" t="s">
-        <v>294</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -9852,27 +9986,27 @@
         <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
       </c>
-      <c r="B2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
-      </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
         <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -10046,10 +10180,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
         <v>304</v>
-      </c>
-      <c r="B2" t="s">
-        <v>305</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -10061,7 +10195,7 @@
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G2">
         <v>2.5</v>
@@ -10113,22 +10247,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
         <v>306</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>307</v>
       </c>
       <c r="E2" t="s">
         <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -10172,19 +10306,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" t="s">
         <v>319</v>
-      </c>
-      <c r="D2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -10227,27 +10361,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>326</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>327</v>
       </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -10295,30 +10429,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
         <v>352</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>353</v>
       </c>
-      <c r="D2" t="s">
-        <v>354</v>
-      </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" t="s">
         <v>353</v>
       </c>
-      <c r="D3" t="s">
-        <v>354</v>
-      </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -10692,7 +10826,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -10780,7 +10914,7 @@
         <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
@@ -10789,7 +10923,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L6" t="s">
         <v>76</v>
@@ -10821,7 +10955,7 @@
         <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I7" t="s">
         <v>61</v>
@@ -10835,16 +10969,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
         <v>61</v>
@@ -10853,50 +10987,50 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
+        <v>281</v>
+      </c>
+      <c r="L8" t="s">
         <v>282</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>283</v>
       </c>
-      <c r="M8" t="s">
-        <v>284</v>
-      </c>
       <c r="Q8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
         <v>256</v>
       </c>
       <c r="H9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
         <v>61</v>
       </c>
       <c r="Q9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
         <v>309</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" t="s">
         <v>310</v>
-      </c>
-      <c r="C10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" t="s">
-        <v>311</v>
       </c>
       <c r="I10" t="s">
         <v>61</v>
@@ -10905,30 +11039,30 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" t="s">
         <v>313</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>314</v>
       </c>
-      <c r="M10" t="s">
-        <v>315</v>
-      </c>
       <c r="Q10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
         <v>256</v>
       </c>
       <c r="H11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
@@ -10937,7 +11071,7 @@
         <v>255</v>
       </c>
       <c r="Q11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -10985,22 +11119,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -11805,40 +11939,40 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
         <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
         <v>346</v>
       </c>
-      <c r="I42" t="s">
-        <v>345</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>347</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>348</v>
-      </c>
-      <c r="L42" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B955330-8FE5-44FD-8BE5-2C4A23368EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FA186-661E-4FD4-8B86-88236FD59A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -32,11 +32,12 @@
     <sheet name="El Cap" sheetId="23" r:id="rId17"/>
     <sheet name="Potentiometers" sheetId="24" r:id="rId18"/>
     <sheet name="DACs" sheetId="25" r:id="rId19"/>
-    <sheet name="Voltage Reference" sheetId="26" r:id="rId20"/>
-    <sheet name="Voltage Sources" sheetId="27" r:id="rId21"/>
-    <sheet name="MCU" sheetId="28" r:id="rId22"/>
-    <sheet name="Converters" sheetId="29" r:id="rId23"/>
-    <sheet name="Oscillators" sheetId="30" r:id="rId24"/>
+    <sheet name="ADCs" sheetId="31" r:id="rId20"/>
+    <sheet name="Voltage Reference" sheetId="26" r:id="rId21"/>
+    <sheet name="Voltage Sources" sheetId="27" r:id="rId22"/>
+    <sheet name="MCU" sheetId="28" r:id="rId23"/>
+    <sheet name="Converters" sheetId="29" r:id="rId24"/>
+    <sheet name="Oscillators" sheetId="30" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="385">
   <si>
     <t>Part Number</t>
   </si>
@@ -1222,6 +1223,18 @@
   </si>
   <si>
     <t>JRB18</t>
+  </si>
+  <si>
+    <t>ADAQ7988BCCZ</t>
+  </si>
+  <si>
+    <t>ADCs.SchLib</t>
+  </si>
+  <si>
+    <t>LGA.PcbLib</t>
+  </si>
+  <si>
+    <t>LGA24</t>
   </si>
 </sst>
 </file>
@@ -9779,7 +9792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADBAED-E8E5-4970-8DAA-34238D39F5D0}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -10138,6 +10151,74 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B5B042-82D0-4C46-9938-6B9689AEF321}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C0CC4-DB37-42CD-B200-C3A1775B2B6D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10206,7 +10287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10270,7 +10351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10326,7 +10407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841E41E-3033-4328-9AAE-D6BAE19485E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10389,7 +10470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A66D0-2486-4B81-8612-E82AD24841A3}">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Altium\AD21\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FA186-661E-4FD4-8B86-88236FD59A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D3829-37F8-42E3-B7FD-E1616139FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="388">
   <si>
     <t>Part Number</t>
   </si>
@@ -1235,6 +1235,15 @@
   </si>
   <si>
     <t>LGA24</t>
+  </si>
+  <si>
+    <t>L78S05CV</t>
+  </si>
+  <si>
+    <t>5В</t>
+  </si>
+  <si>
+    <t>Bridge-SSPN</t>
   </si>
 </sst>
 </file>
@@ -9115,9 +9124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9276,7 +9285,7 @@
         <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
         <v>369</v>
@@ -10154,7 +10163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B5B042-82D0-4C46-9938-6B9689AEF321}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -10289,10 +10298,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10344,6 +10353,29 @@
       </c>
       <c r="F2" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D3829-37F8-42E3-B7FD-E1616139FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A24BC-F028-449C-9E65-6EA50A0DA423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="392">
   <si>
     <t>Part Number</t>
   </si>
@@ -1244,6 +1244,18 @@
   </si>
   <si>
     <t>Bridge-SSPN</t>
+  </si>
+  <si>
+    <t>LDM-BB-K1986BE92QI</t>
+  </si>
+  <si>
+    <t>Modules.PcbLib</t>
+  </si>
+  <si>
+    <t>Отладочная плата</t>
+  </si>
+  <si>
+    <t>Микросхема</t>
   </si>
 </sst>
 </file>
@@ -9124,7 +9136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -10385,22 +10397,21 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10416,8 +10427,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -10432,6 +10446,29 @@
       </c>
       <c r="E2" t="s">
         <v>319</v>
+      </c>
+      <c r="F2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1A24BC-F028-449C-9E65-6EA50A0DA423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE311C40-0DA7-47A4-A38C-42FB3E967123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="399">
   <si>
     <t>Part Number</t>
   </si>
@@ -1256,6 +1256,27 @@
   </si>
   <si>
     <t>Микросхема</t>
+  </si>
+  <si>
+    <t>SN74LVC1G3157DBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>ADP3334ARZ-REEL7</t>
+  </si>
+  <si>
+    <t>Schottky-AC</t>
+  </si>
+  <si>
+    <t>VS-10MQ060-M3/5AT</t>
+  </si>
+  <si>
+    <t>DO-214AC/SMA</t>
+  </si>
+  <si>
+    <t>Schottky</t>
   </si>
 </sst>
 </file>
@@ -9022,20 +9043,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9124,6 +9144,26 @@
       </c>
       <c r="E5" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -9134,16 +9174,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -9333,6 +9373,29 @@
       </c>
       <c r="H9" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -10310,18 +10373,18 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10390,8 +10453,29 @@
         <v>386</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10399,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE311C40-0DA7-47A4-A38C-42FB3E967123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49CDDEB-E3B2-4DC5-9EDA-6E727F7A3260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31845" yWindow="2115" windowWidth="24885" windowHeight="11385" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="402">
   <si>
     <t>Part Number</t>
   </si>
@@ -1277,6 +1277,15 @@
   </si>
   <si>
     <t>Schottky</t>
+  </si>
+  <si>
+    <t>LL-S194PUGC-2B</t>
+  </si>
+  <si>
+    <t>LED.PcbLib</t>
+  </si>
+  <si>
+    <t>LED 0603</t>
   </si>
 </sst>
 </file>
@@ -9174,11 +9183,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9396,6 +9405,29 @@
       </c>
       <c r="H10" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49CDDEB-E3B2-4DC5-9EDA-6E727F7A3260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80C558-2F92-4790-9403-FF3EA0C77F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="2115" windowWidth="24885" windowHeight="11385" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31845" yWindow="2115" windowWidth="24885" windowHeight="11385" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="403">
   <si>
     <t>Part Number</t>
   </si>
@@ -1286,6 +1286,9 @@
   </si>
   <si>
     <t>LED 0603</t>
+  </si>
+  <si>
+    <t>KLS7-SS03-12D02</t>
   </si>
 </sst>
 </file>
@@ -9052,11 +9055,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9175,6 +9178,26 @@
         <v>255</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9185,7 +9208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A80C558-2F92-4790-9403-FF3EA0C77F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6B92C6-791F-4C6F-8755-1CB1393142DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="2115" windowWidth="24885" windowHeight="11385" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="409">
   <si>
     <t>Part Number</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t>USB-UART</t>
   </si>
   <si>
-    <t>Commet</t>
-  </si>
-  <si>
     <t>Jumper-2</t>
   </si>
   <si>
@@ -1289,6 +1286,27 @@
   </si>
   <si>
     <t>KLS7-SS03-12D02</t>
+  </si>
+  <si>
+    <t>1P2T</t>
+  </si>
+  <si>
+    <t>Crystals.PcbLib</t>
+  </si>
+  <si>
+    <t>HCR2520</t>
+  </si>
+  <si>
+    <t>NX5032GA</t>
+  </si>
+  <si>
+    <t>DS1037-9F</t>
+  </si>
+  <si>
+    <t>DS1037.PcbLib</t>
+  </si>
+  <si>
+    <t>Connector-9-F</t>
   </si>
 </sst>
 </file>
@@ -9057,9 +9075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9075,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -9112,16 +9130,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
         <v>235</v>
@@ -9132,13 +9150,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
         <v>235</v>
@@ -9146,13 +9164,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
         <v>349</v>
       </c>
-      <c r="B5" t="s">
-        <v>350</v>
-      </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" t="s">
         <v>235</v>
@@ -9160,16 +9178,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" t="s">
         <v>392</v>
-      </c>
-      <c r="B6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" t="s">
-        <v>393</v>
       </c>
       <c r="E6" t="s">
         <v>235</v>
@@ -9180,16 +9198,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E7" t="s">
         <v>235</v>
@@ -9241,7 +9259,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -9326,13 +9344,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
         <v>333</v>
-      </c>
-      <c r="B6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" t="s">
-        <v>334</v>
       </c>
       <c r="G6" t="s">
         <v>241</v>
@@ -9340,19 +9358,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
         <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G7" t="s">
         <v>241</v>
@@ -9363,65 +9381,65 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
         <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F9" t="s">
-        <v>376</v>
       </c>
       <c r="G9" t="s">
         <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" t="s">
         <v>396</v>
       </c>
-      <c r="B10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>397</v>
-      </c>
-      <c r="F10" t="s">
-        <v>398</v>
       </c>
       <c r="G10" t="s">
         <v>241</v>
@@ -9432,25 +9450,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G11" t="s">
         <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9670,7 +9688,7 @@
         <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9693,7 +9711,7 @@
         <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9716,38 +9734,38 @@
         <v>298</v>
       </c>
       <c r="G3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
         <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
         <v>297</v>
@@ -9759,10 +9777,10 @@
         <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -9974,7 +9992,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -9989,7 +10007,7 @@
         <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" t="s">
         <v>276</v>
@@ -10000,13 +10018,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -10015,13 +10033,13 @@
         <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -10331,22 +10349,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" t="s">
         <v>381</v>
       </c>
-      <c r="B2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>382</v>
       </c>
-      <c r="E2" t="s">
-        <v>383</v>
-      </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -10487,10 +10505,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
         <v>280</v>
@@ -10502,18 +10520,18 @@
         <v>65</v>
       </c>
       <c r="F3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" t="s">
         <v>385</v>
-      </c>
-      <c r="G3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
         <v>297</v>
@@ -10525,7 +10543,7 @@
         <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -10567,7 +10585,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10587,27 +10605,27 @@
         <v>319</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
         <v>320</v>
       </c>
       <c r="E3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" t="s">
         <v>389</v>
-      </c>
-      <c r="F3" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -10683,14 +10701,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -10718,30 +10736,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
         <v>351</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" t="s">
         <v>352</v>
       </c>
-      <c r="D2" t="s">
-        <v>353</v>
+      <c r="E2" t="s">
+        <v>403</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" t="s">
         <v>352</v>
       </c>
-      <c r="D3" t="s">
-        <v>353</v>
+      <c r="E3" t="s">
+        <v>403</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -11371,11 +11401,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11408,22 +11438,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12228,40 +12258,60 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
         <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H42" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
         <v>345</v>
       </c>
-      <c r="I42" t="s">
-        <v>344</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>346</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>347</v>
       </c>
-      <c r="L42" t="s">
-        <v>348</v>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" t="s">
+        <v>406</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Altium Projects\_LIBS\GOST_Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Altium\_LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6B92C6-791F-4C6F-8755-1CB1393142DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43324B8-56B5-40C8-9218-CCC20D82D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,24 @@
     <sheet name="Coaxile Connectors" sheetId="6" r:id="rId6"/>
     <sheet name="Transistors" sheetId="7" r:id="rId7"/>
     <sheet name="Table Connectors" sheetId="8" r:id="rId8"/>
-    <sheet name="Conncetors" sheetId="9" r:id="rId9"/>
-    <sheet name="Switches" sheetId="16" r:id="rId10"/>
-    <sheet name="Diodes" sheetId="17" r:id="rId11"/>
-    <sheet name="Relays" sheetId="18" r:id="rId12"/>
-    <sheet name="SQP Res" sheetId="19" r:id="rId13"/>
-    <sheet name="OpAmps" sheetId="20" r:id="rId14"/>
-    <sheet name="Analog ICs" sheetId="21" r:id="rId15"/>
-    <sheet name="RLB Inductors" sheetId="22" r:id="rId16"/>
-    <sheet name="El Cap" sheetId="23" r:id="rId17"/>
-    <sheet name="Potentiometers" sheetId="24" r:id="rId18"/>
-    <sheet name="DACs" sheetId="25" r:id="rId19"/>
-    <sheet name="ADCs" sheetId="31" r:id="rId20"/>
-    <sheet name="Voltage Reference" sheetId="26" r:id="rId21"/>
-    <sheet name="Voltage Sources" sheetId="27" r:id="rId22"/>
-    <sheet name="MCU" sheetId="28" r:id="rId23"/>
-    <sheet name="Converters" sheetId="29" r:id="rId24"/>
-    <sheet name="Oscillators" sheetId="30" r:id="rId25"/>
+    <sheet name="Sensors" sheetId="32" r:id="rId9"/>
+    <sheet name="Conncetors" sheetId="9" r:id="rId10"/>
+    <sheet name="Switches" sheetId="16" r:id="rId11"/>
+    <sheet name="Diodes" sheetId="17" r:id="rId12"/>
+    <sheet name="Relays" sheetId="18" r:id="rId13"/>
+    <sheet name="SQP Res" sheetId="19" r:id="rId14"/>
+    <sheet name="OpAmps" sheetId="20" r:id="rId15"/>
+    <sheet name="Analog ICs" sheetId="21" r:id="rId16"/>
+    <sheet name="RLB Inductors" sheetId="22" r:id="rId17"/>
+    <sheet name="El Cap" sheetId="23" r:id="rId18"/>
+    <sheet name="Potentiometers" sheetId="24" r:id="rId19"/>
+    <sheet name="DACs" sheetId="25" r:id="rId20"/>
+    <sheet name="ADCs" sheetId="31" r:id="rId21"/>
+    <sheet name="Voltage Reference" sheetId="26" r:id="rId22"/>
+    <sheet name="Voltage Sources" sheetId="27" r:id="rId23"/>
+    <sheet name="MCU" sheetId="28" r:id="rId24"/>
+    <sheet name="Converters" sheetId="29" r:id="rId25"/>
+    <sheet name="Oscillators" sheetId="30" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="413">
   <si>
     <t>Part Number</t>
   </si>
@@ -1307,6 +1308,18 @@
   </si>
   <si>
     <t>Connector-9-F</t>
+  </si>
+  <si>
+    <t>SHT21</t>
+  </si>
+  <si>
+    <t>DFN-6</t>
+  </si>
+  <si>
+    <t>Sensors.SchLib</t>
+  </si>
+  <si>
+    <t>DFN.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -1679,19 +1692,19 @@
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>CONCATENATE("Resistor ",L3)</f>
         <v>Resistor 1</v>
@@ -1815,7 +1828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">CONCATENATE("Resistor ",L4)</f>
         <v>Resistor 1,1</v>
@@ -1857,7 +1870,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,2</v>
@@ -1899,7 +1912,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,3</v>
@@ -1941,7 +1954,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,5</v>
@@ -1983,7 +1996,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,6</v>
@@ -2025,7 +2038,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 1,8</v>
@@ -2067,7 +2080,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2</v>
@@ -2109,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2,2</v>
@@ -2151,7 +2164,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2,4</v>
@@ -2193,7 +2206,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 2,7</v>
@@ -2235,7 +2248,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3</v>
@@ -2277,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3,3</v>
@@ -2319,7 +2332,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3,6</v>
@@ -2361,7 +2374,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 3,9</v>
@@ -2403,7 +2416,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 4,3</v>
@@ -2445,7 +2458,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 4,7</v>
@@ -2487,7 +2500,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 5,1</v>
@@ -2529,7 +2542,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 5,6</v>
@@ -2571,7 +2584,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 6,2</v>
@@ -2613,7 +2626,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 6,8</v>
@@ -2655,7 +2668,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 7,5</v>
@@ -2697,7 +2710,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 8,2</v>
@@ -2739,7 +2752,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 9,1</v>
@@ -2781,7 +2794,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 10</v>
@@ -2823,7 +2836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 11</v>
@@ -2865,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 12</v>
@@ -2907,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 13</v>
@@ -2949,7 +2962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 15</v>
@@ -2991,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 16</v>
@@ -3033,7 +3046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 18</v>
@@ -3075,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 20</v>
@@ -3117,7 +3130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 22</v>
@@ -3159,7 +3172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 24</v>
@@ -3201,7 +3214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 27</v>
@@ -3243,7 +3256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 30</v>
@@ -3285,7 +3298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 33</v>
@@ -3327,7 +3340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 36</v>
@@ -3369,7 +3382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 39</v>
@@ -3411,7 +3424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 43</v>
@@ -3453,7 +3466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 47</v>
@@ -3495,7 +3508,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 51</v>
@@ -3537,7 +3550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 56</v>
@@ -3579,7 +3592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 62</v>
@@ -3621,7 +3634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 68</v>
@@ -3663,7 +3676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 75</v>
@@ -3705,7 +3718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 82</v>
@@ -3747,7 +3760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 91</v>
@@ -3789,7 +3802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 100</v>
@@ -3831,7 +3844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 110</v>
@@ -3873,7 +3886,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 120</v>
@@ -3915,7 +3928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 130</v>
@@ -3957,7 +3970,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 150</v>
@@ -3999,7 +4012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 160</v>
@@ -4041,7 +4054,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 180</v>
@@ -4083,7 +4096,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 200</v>
@@ -4125,7 +4138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 220</v>
@@ -4167,7 +4180,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 240</v>
@@ -4209,7 +4222,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 270</v>
@@ -4251,7 +4264,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 300</v>
@@ -4293,7 +4306,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 330</v>
@@ -4335,7 +4348,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 360</v>
@@ -4377,7 +4390,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 390</v>
@@ -4419,7 +4432,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 430</v>
@@ -4461,7 +4474,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>Resistor 470</v>
@@ -4503,7 +4516,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">CONCATENATE("Resistor ",L68)</f>
         <v>Resistor 510</v>
@@ -4545,7 +4558,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 560</v>
@@ -4587,7 +4600,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 620</v>
@@ -4629,7 +4642,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 680</v>
@@ -4671,7 +4684,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 750</v>
@@ -4713,7 +4726,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 820</v>
@@ -4755,7 +4768,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 910</v>
@@ -4797,7 +4810,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1K</v>
@@ -4841,7 +4854,7 @@
         <v>1K</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,1K</v>
@@ -4885,7 +4898,7 @@
         <v>1,1K</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,2K</v>
@@ -4929,7 +4942,7 @@
         <v>1,2K</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,3K</v>
@@ -4973,7 +4986,7 @@
         <v>1,3K</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,5K</v>
@@ -5017,7 +5030,7 @@
         <v>1,5K</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,6K</v>
@@ -5061,7 +5074,7 @@
         <v>1,6K</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 1,8K</v>
@@ -5105,7 +5118,7 @@
         <v>1,8K</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2K</v>
@@ -5149,7 +5162,7 @@
         <v>2K</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2,2K</v>
@@ -5193,7 +5206,7 @@
         <v>2,2K</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2,4K</v>
@@ -5237,7 +5250,7 @@
         <v>2,4K</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 2,7K</v>
@@ -5281,7 +5294,7 @@
         <v>2,7K</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3K</v>
@@ -5325,7 +5338,7 @@
         <v>3K</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3,3K</v>
@@ -5369,7 +5382,7 @@
         <v>3,3K</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3,6K</v>
@@ -5413,7 +5426,7 @@
         <v>3,6K</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 3,9K</v>
@@ -5457,7 +5470,7 @@
         <v>3,9K</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 4,3K</v>
@@ -5501,7 +5514,7 @@
         <v>4,3K</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 4,7K</v>
@@ -5545,7 +5558,7 @@
         <v>4,7K</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 5,1K</v>
@@ -5589,7 +5602,7 @@
         <v>5,1K</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 5,6K</v>
@@ -5633,7 +5646,7 @@
         <v>5,6K</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 6,2K</v>
@@ -5677,7 +5690,7 @@
         <v>6,2K</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 6,8K</v>
@@ -5721,7 +5734,7 @@
         <v>6,8K</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 7,5K</v>
@@ -5765,7 +5778,7 @@
         <v>7,5K</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 8,2K</v>
@@ -5809,7 +5822,7 @@
         <v>8,2K</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 9,1K</v>
@@ -5853,7 +5866,7 @@
         <v>9,1K</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 10K</v>
@@ -5897,7 +5910,7 @@
         <v>10K</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 11K</v>
@@ -5941,7 +5954,7 @@
         <v>11K</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 12K</v>
@@ -5985,7 +5998,7 @@
         <v>12K</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 13K</v>
@@ -6029,7 +6042,7 @@
         <v>13K</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 15K</v>
@@ -6073,7 +6086,7 @@
         <v>15K</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 16K</v>
@@ -6117,7 +6130,7 @@
         <v>16K</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 18K</v>
@@ -6161,7 +6174,7 @@
         <v>18K</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 20K</v>
@@ -6205,7 +6218,7 @@
         <v>20K</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 22K</v>
@@ -6249,7 +6262,7 @@
         <v>22K</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 24K</v>
@@ -6293,7 +6306,7 @@
         <v>24K</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 27K</v>
@@ -6337,7 +6350,7 @@
         <v>27K</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 30K</v>
@@ -6381,7 +6394,7 @@
         <v>30K</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 33K</v>
@@ -6425,7 +6438,7 @@
         <v>33K</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 36K</v>
@@ -6469,7 +6482,7 @@
         <v>36K</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 39K</v>
@@ -6513,7 +6526,7 @@
         <v>39K</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 43K</v>
@@ -6557,7 +6570,7 @@
         <v>43K</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 47K</v>
@@ -6601,7 +6614,7 @@
         <v>47K</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 51K</v>
@@ -6645,7 +6658,7 @@
         <v>51K</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 56K</v>
@@ -6689,7 +6702,7 @@
         <v>56K</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 62K</v>
@@ -6733,7 +6746,7 @@
         <v>62K</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 68K</v>
@@ -6777,7 +6790,7 @@
         <v>68K</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 75K</v>
@@ -6821,7 +6834,7 @@
         <v>75K</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 82K</v>
@@ -6865,7 +6878,7 @@
         <v>82K</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 91K</v>
@@ -6909,7 +6922,7 @@
         <v>91K</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 100K</v>
@@ -6953,7 +6966,7 @@
         <v>100K</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 110K</v>
@@ -6997,7 +7010,7 @@
         <v>110K</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 120K</v>
@@ -7041,7 +7054,7 @@
         <v>120K</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 130K</v>
@@ -7085,7 +7098,7 @@
         <v>130K</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 150K</v>
@@ -7129,7 +7142,7 @@
         <v>150K</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 160K</v>
@@ -7173,7 +7186,7 @@
         <v>160K</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 180K</v>
@@ -7217,7 +7230,7 @@
         <v>180K</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 200K</v>
@@ -7261,7 +7274,7 @@
         <v>200K</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
         <v>Resistor 220K</v>
@@ -7305,7 +7318,7 @@
         <v>220K</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A171" si="3">CONCATENATE("Resistor ",L132)</f>
         <v>Resistor 240K</v>
@@ -7349,7 +7362,7 @@
         <v>240K</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 270K</v>
@@ -7393,7 +7406,7 @@
         <v>270K</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 300K</v>
@@ -7437,7 +7450,7 @@
         <v>300K</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 330K</v>
@@ -7481,7 +7494,7 @@
         <v>330K</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 360K</v>
@@ -7525,7 +7538,7 @@
         <v>360K</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 390K</v>
@@ -7569,7 +7582,7 @@
         <v>390K</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 430K</v>
@@ -7613,7 +7626,7 @@
         <v>430K</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 470K</v>
@@ -7657,7 +7670,7 @@
         <v>470K</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 510K</v>
@@ -7701,7 +7714,7 @@
         <v>510K</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 560K</v>
@@ -7745,7 +7758,7 @@
         <v>560K</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 620K</v>
@@ -7789,7 +7802,7 @@
         <v>620K</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 680K</v>
@@ -7833,7 +7846,7 @@
         <v>680K</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 750K</v>
@@ -7877,7 +7890,7 @@
         <v>750K</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 820K</v>
@@ -7921,7 +7934,7 @@
         <v>820K</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 910K</v>
@@ -7965,7 +7978,7 @@
         <v>910K</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1M</v>
@@ -8009,7 +8022,7 @@
         <v>1M</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,1M</v>
@@ -8053,7 +8066,7 @@
         <v>1,1M</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,2M</v>
@@ -8097,7 +8110,7 @@
         <v>1,2M</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,3M</v>
@@ -8141,7 +8154,7 @@
         <v>1,3M</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,5M</v>
@@ -8185,7 +8198,7 @@
         <v>1,5M</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,6M</v>
@@ -8229,7 +8242,7 @@
         <v>1,6M</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 1,8M</v>
@@ -8273,7 +8286,7 @@
         <v>1,8M</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2M</v>
@@ -8317,7 +8330,7 @@
         <v>2M</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2,2M</v>
@@ -8361,7 +8374,7 @@
         <v>2,2M</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2,4M</v>
@@ -8405,7 +8418,7 @@
         <v>2,4M</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 2,7M</v>
@@ -8449,7 +8462,7 @@
         <v>2,7M</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3M</v>
@@ -8493,7 +8506,7 @@
         <v>3M</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3,3M</v>
@@ -8537,7 +8550,7 @@
         <v>3,3M</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3,6M</v>
@@ -8581,7 +8594,7 @@
         <v>3,6M</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 3,9M</v>
@@ -8625,7 +8638,7 @@
         <v>3,9M</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 4,3M</v>
@@ -8669,7 +8682,7 @@
         <v>4,3M</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 4,7M</v>
@@ -8713,7 +8726,7 @@
         <v>4,7M</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 5,1M</v>
@@ -8757,7 +8770,7 @@
         <v>5,1M</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 5,6M</v>
@@ -8801,7 +8814,7 @@
         <v>5,6M</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 6,2M</v>
@@ -8845,7 +8858,7 @@
         <v>6,2M</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 6,8M</v>
@@ -8889,7 +8902,7 @@
         <v>6,8M</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 7,5M</v>
@@ -8933,7 +8946,7 @@
         <v>7,5M</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 8,2M</v>
@@ -8977,7 +8990,7 @@
         <v>8,2M</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 9,1M</v>
@@ -9021,7 +9034,7 @@
         <v>9,1M</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
         <v>Resistor 10M</v>
@@ -9072,6 +9085,1613 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2DF4A-4DF6-48C6-A5C1-4963A031A5FD}">
+  <dimension ref="A1:F79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:F79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -9080,15 +10700,15 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +10728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -9128,7 +10748,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -9148,7 +10768,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -9162,7 +10782,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -9176,7 +10796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>391</v>
       </c>
@@ -9196,7 +10816,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>401</v>
       </c>
@@ -9222,7 +10842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62DFAC1-75D7-46B3-9775-134B736AC5F9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -9231,18 +10851,18 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9268,7 +10888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -9282,7 +10902,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -9302,7 +10922,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -9322,7 +10942,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>322</v>
       </c>
@@ -9342,7 +10962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -9356,7 +10976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -9379,7 +10999,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>370</v>
       </c>
@@ -9402,7 +11022,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>374</v>
       </c>
@@ -9425,7 +11045,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>395</v>
       </c>
@@ -9448,7 +11068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>398</v>
       </c>
@@ -9477,7 +11097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047152A-FCBE-403C-A91A-439AB27AC722}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -9485,16 +11105,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9514,7 +11134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -9534,7 +11154,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -9554,7 +11174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>248</v>
       </c>
@@ -9579,7 +11199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A472A1-95E4-4749-8DC1-78716A94C072}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -9587,18 +11207,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9621,7 +11241,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -9649,7 +11269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90E4213-4995-4D51-9659-5C272360332C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -9657,18 +11277,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9691,7 +11311,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -9714,7 +11334,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -9737,7 +11357,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>356</v>
       </c>
@@ -9760,7 +11380,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>364</v>
       </c>
@@ -9788,7 +11408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF9B95B-134C-4FD8-8A48-B6718728E3BB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9796,17 +11416,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9826,7 +11446,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -9851,7 +11471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3FA756-703C-41CB-92CC-596399589CC9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -9859,18 +11479,18 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9893,7 +11513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9916,7 +11536,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>285</v>
       </c>
@@ -9945,7 +11565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CADBAED-E8E5-4970-8DAA-34238D39F5D0}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -9953,18 +11573,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9990,7 +11610,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -10016,7 +11636,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>378</v>
       </c>
@@ -10047,7 +11667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB034B99-E4EF-41D8-8723-B0F620C49749}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10055,17 +11675,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10091,7 +11711,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -10112,74 +11732,6 @@
       </c>
       <c r="G2">
         <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16020252-59AC-4E88-B695-96D3C1364171}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -10196,18 +11748,18 @@
       <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10254,7 +11806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10308,6 +11860,74 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16020252-59AC-4E88-B695-96D3C1364171}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B5B042-82D0-4C46-9938-6B9689AEF321}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10315,16 +11935,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10347,7 +11967,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -10375,7 +11995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C0CC4-DB37-42CD-B200-C3A1775B2B6D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -10383,17 +12003,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10416,7 +12036,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -10444,7 +12064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -10452,15 +12072,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10483,7 +12103,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>305</v>
       </c>
@@ -10503,7 +12123,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -10526,7 +12146,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>393</v>
       </c>
@@ -10552,7 +12172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -10560,15 +12180,15 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10588,7 +12208,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -10608,7 +12228,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -10633,7 +12253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841E41E-3033-4328-9AAE-D6BAE19485E1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10641,17 +12261,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10671,7 +12291,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -10696,7 +12316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A66D0-2486-4B81-8612-E82AD24841A3}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -10704,17 +12324,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10734,7 +12354,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -10754,7 +12374,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>353</v>
       </c>
@@ -10788,20 +12408,20 @@
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10836,7 +12456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -10885,18 +12505,18 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10931,7 +12551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -10959,17 +12579,17 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11004,7 +12624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -11032,18 +12652,18 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11075,7 +12695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11106,23 +12726,23 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11175,7 +12795,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -11189,7 +12809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -11200,7 +12820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -11211,7 +12831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -11222,7 +12842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -11263,7 +12883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -11286,7 +12906,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -11318,7 +12938,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -11338,7 +12958,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -11370,7 +12990,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>315</v>
       </c>
@@ -11403,22 +13023,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11456,7 +13076,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -11476,7 +13096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -11496,7 +13116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -11516,7 +13136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -11536,7 +13156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -11556,7 +13176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -11576,7 +13196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -11596,7 +13216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -11616,7 +13236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -11636,7 +13256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -11656,7 +13276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -11676,7 +13296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -11696,7 +13316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -11716,7 +13336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -11736,7 +13356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -11756,7 +13376,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -11776,7 +13396,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -11796,7 +13416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -11816,7 +13436,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -11836,7 +13456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -11856,7 +13476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -11876,7 +13496,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>227</v>
       </c>
@@ -11896,7 +13516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -11916,7 +13536,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -11936,7 +13556,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -11956,7 +13576,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -11976,7 +13596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -11996,7 +13616,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -12016,7 +13636,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -12036,7 +13656,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -12056,7 +13676,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -12076,7 +13696,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -12096,7 +13716,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -12116,7 +13736,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -12136,7 +13756,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -12156,7 +13776,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -12176,7 +13796,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -12196,7 +13816,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -12216,7 +13836,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -12236,7 +13856,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -12256,7 +13876,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -12294,7 +13914,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -12321,27 +13941,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2DF4A-4DF6-48C6-A5C1-4963A031A5FD}">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82DC072-E21C-4B4A-A5DC-2B06B67945BF}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:F79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12361,1568 +13978,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" t="s">
-        <v>205</v>
-      </c>
-      <c r="D47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" t="s">
-        <v>176</v>
-      </c>
-      <c r="E64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>179</v>
-      </c>
-      <c r="B68" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>183</v>
-      </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" t="s">
-        <v>51</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B78" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" t="s">
-        <v>185</v>
-      </c>
-      <c r="E78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>204</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Altium\_LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43324B8-56B5-40C8-9218-CCC20D82D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8EDA4-168B-41AC-BBC5-92F28076BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19440" windowHeight="12120" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="425">
   <si>
     <t>Part Number</t>
   </si>
@@ -1320,6 +1320,42 @@
   </si>
   <si>
     <t>DFN.PcbLib</t>
+  </si>
+  <si>
+    <t>I2C Mux</t>
+  </si>
+  <si>
+    <t>PQFN-24</t>
+  </si>
+  <si>
+    <t>TCA9548A_QFN</t>
+  </si>
+  <si>
+    <t>TCA9548A QFN</t>
+  </si>
+  <si>
+    <t>TCA9548A</t>
+  </si>
+  <si>
+    <t>SN65HVD379</t>
+  </si>
+  <si>
+    <t>UART-RS422</t>
+  </si>
+  <si>
+    <t>STM32F103T6</t>
+  </si>
+  <si>
+    <t>VQFN-36 6x6</t>
+  </si>
+  <si>
+    <t>LD1117</t>
+  </si>
+  <si>
+    <t>3.3В</t>
+  </si>
+  <si>
+    <t>LD1117D33TR</t>
   </si>
 </sst>
 </file>
@@ -12066,10 +12102,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12166,6 +12202,29 @@
         <v>393</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12174,10 +12233,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24740AD4-1F39-4A81-B96D-3AE6D15F5B16}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12248,6 +12307,26 @@
         <v>389</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12255,23 +12334,24 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C841E41E-3033-4328-9AAE-D6BAE19485E1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12288,10 +12368,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -12308,7 +12391,56 @@
         <v>327</v>
       </c>
       <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -12321,7 +12453,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13944,7 +14076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82DC072-E21C-4B4A-A5DC-2B06B67945BF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Altium\_LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8EDA4-168B-41AC-BBC5-92F28076BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AFA71-69A0-4DC2-9785-2C22CB21F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19440" windowHeight="12120" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19440" windowHeight="12120" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="426">
   <si>
     <t>Part Number</t>
   </si>
@@ -1356,6 +1356,9 @@
   </si>
   <si>
     <t>LD1117D33TR</t>
+  </si>
+  <si>
+    <t>Connector-5-M</t>
   </si>
 </sst>
 </file>
@@ -12104,7 +12107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A3438-F635-42B7-BA09-618C7E84CE48}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -13153,11 +13156,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13270,16 +13273,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>68</v>
@@ -13290,16 +13293,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>68</v>
@@ -13310,16 +13313,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
@@ -13330,16 +13333,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
@@ -13350,16 +13353,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -13370,16 +13373,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>68</v>
@@ -13390,16 +13393,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
@@ -13410,16 +13413,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
@@ -13430,36 +13433,36 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
@@ -13470,16 +13473,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -13490,16 +13493,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
         <v>68</v>
@@ -13510,16 +13513,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -13530,16 +13533,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
         <v>68</v>
@@ -13550,16 +13553,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
         <v>68</v>
@@ -13570,16 +13573,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
         <v>68</v>
@@ -13590,16 +13593,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
@@ -13610,16 +13613,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -13630,16 +13633,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
         <v>68</v>
@@ -13650,36 +13653,36 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -13690,16 +13693,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
         <v>68</v>
@@ -13710,16 +13713,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
         <v>68</v>
@@ -13730,16 +13733,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
         <v>68</v>
@@ -13750,16 +13753,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
         <v>68</v>
@@ -13770,16 +13773,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>68</v>
@@ -13790,16 +13793,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>68</v>
@@ -13810,16 +13813,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
@@ -13830,36 +13833,36 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>68</v>
@@ -13870,16 +13873,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
@@ -13890,16 +13893,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
@@ -13910,16 +13913,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
@@ -13930,16 +13933,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
@@ -13950,16 +13953,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
@@ -13970,16 +13973,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
@@ -13990,16 +13993,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
@@ -14010,59 +14013,79 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
-      </c>
-      <c r="G42" t="s">
-        <v>337</v>
-      </c>
-      <c r="H42" t="s">
-        <v>344</v>
-      </c>
-      <c r="I42" t="s">
-        <v>343</v>
-      </c>
-      <c r="J42" t="s">
-        <v>345</v>
-      </c>
-      <c r="K42" t="s">
-        <v>346</v>
-      </c>
-      <c r="L42" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="C43" t="s">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>337</v>
+      </c>
+      <c r="H43" t="s">
+        <v>344</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>406</v>
+      </c>
+      <c r="B44" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
         <v>407</v>
       </c>
     </row>

--- a/GOST_DbLib.xlsx
+++ b/GOST_DbLib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Altium\_LIBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AFA71-69A0-4DC2-9785-2C22CB21F14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FAE684-C5BC-4157-9547-B49BCF90CDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19440" windowHeight="12120" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23184" windowHeight="13680" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Resistors" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="428">
   <si>
     <t>Part Number</t>
   </si>
@@ -1359,6 +1359,12 @@
   </si>
   <si>
     <t>Connector-5-M</t>
+  </si>
+  <si>
+    <t>DMHA-05G-G</t>
+  </si>
+  <si>
+    <t>SPST 5</t>
   </si>
 </sst>
 </file>
@@ -10732,11 +10738,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A26AB-E03D-46DC-828B-0167A7AD8138}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10873,6 +10879,26 @@
       </c>
       <c r="F7" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -13158,7 +13184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2073323F-216D-45A3-8256-30593648534C}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
